--- a/ASME B1.1 New.xlsx
+++ b/ASME B1.1 New.xlsx
@@ -29,9 +29,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1092" uniqueCount="147">
   <si>
-    <t>Thread Size</t>
-  </si>
-  <si>
     <t>Designation</t>
   </si>
   <si>
@@ -513,6 +510,9 @@
   </si>
   <si>
     <t>Pitch Diameter (Max)</t>
+  </si>
+  <si>
+    <t>Thread</t>
   </si>
 </sst>
 </file>
@@ -1005,7 +1005,7 @@
   <dimension ref="A1:T368"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1023,46 +1023,46 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="26" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B1" s="26" t="s">
-        <v>0</v>
+        <v>146</v>
       </c>
       <c r="C1" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="E1" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="26" t="s">
-        <v>3</v>
-      </c>
       <c r="F1" s="26" t="s">
+        <v>142</v>
+      </c>
+      <c r="G1" s="26" t="s">
         <v>143</v>
       </c>
-      <c r="G1" s="26" t="s">
+      <c r="H1" s="26" t="s">
         <v>144</v>
       </c>
-      <c r="H1" s="26" t="s">
+      <c r="I1" s="26" t="s">
         <v>145</v>
-      </c>
-      <c r="I1" s="26" t="s">
-        <v>146</v>
       </c>
       <c r="K1" s="9"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="23" t="s">
-        <v>5</v>
-      </c>
       <c r="C2" s="25" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D2" s="25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E2" s="6">
         <v>5.0000000000000001E-4</v>
@@ -1082,16 +1082,16 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="23" t="s">
-        <v>5</v>
-      </c>
       <c r="C3" s="25" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D3" s="25" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E3" s="6">
         <v>0</v>
@@ -1111,16 +1111,16 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D4" s="25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E4" s="6">
         <v>5.9999999999999995E-4</v>
@@ -1140,16 +1140,16 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D5" s="25" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E5" s="6">
         <v>0</v>
@@ -1169,16 +1169,16 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D6" s="25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E6" s="6">
         <v>5.9999999999999995E-4</v>
@@ -1198,16 +1198,16 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D7" s="25" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E7" s="6">
         <v>0</v>
@@ -1230,16 +1230,16 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" s="25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D8" s="25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E8" s="6">
         <v>5.9999999999999995E-4</v>
@@ -1262,16 +1262,16 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C9" s="25" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D9" s="25" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E9" s="6">
         <v>0</v>
@@ -1294,16 +1294,16 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D10" s="25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E10" s="6">
         <v>5.9999999999999995E-4</v>
@@ -1326,16 +1326,16 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" s="25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C11" s="25" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D11" s="25" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E11" s="6">
         <v>0</v>
@@ -1358,16 +1358,16 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" s="25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C12" s="25" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D12" s="25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E12" s="6">
         <v>6.9999999999999999E-4</v>
@@ -1390,16 +1390,16 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" s="25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C13" s="25" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D13" s="25" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E13" s="6">
         <v>0</v>
@@ -1422,16 +1422,16 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" s="25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C14" s="25" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D14" s="25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E14" s="6">
         <v>6.9999999999999999E-4</v>
@@ -1454,16 +1454,16 @@
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" s="25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C15" s="25" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D15" s="25" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E15" s="6">
         <v>0</v>
@@ -1486,16 +1486,16 @@
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" s="25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C16" s="25" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D16" s="25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E16" s="6">
         <v>8.0000000000000004E-4</v>
@@ -1518,16 +1518,16 @@
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" s="25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C17" s="25" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D17" s="25" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E17" s="6">
         <v>0</v>
@@ -1550,16 +1550,16 @@
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" s="25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C18" s="25" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D18" s="25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E18" s="6">
         <v>6.9999999999999999E-4</v>
@@ -1582,16 +1582,16 @@
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" s="25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C19" s="25" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D19" s="25" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E19" s="6">
         <v>0</v>
@@ -1614,16 +1614,16 @@
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" s="25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C20" s="25" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D20" s="25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E20" s="6">
         <v>8.0000000000000004E-4</v>
@@ -1646,16 +1646,16 @@
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21" s="25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C21" s="25" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D21" s="25" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E21" s="6">
         <v>0</v>
@@ -1678,16 +1678,16 @@
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22" s="25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C22" s="25" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D22" s="25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E22" s="6">
         <v>6.9999999999999999E-4</v>
@@ -1710,16 +1710,16 @@
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23" s="25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C23" s="25" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D23" s="25" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E23" s="6">
         <v>0</v>
@@ -1742,16 +1742,16 @@
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24" s="25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C24" s="25" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D24" s="25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E24" s="6">
         <v>8.0000000000000004E-4</v>
@@ -1774,16 +1774,16 @@
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25" s="25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C25" s="25" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D25" s="25" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E25" s="6">
         <v>0</v>
@@ -1806,16 +1806,16 @@
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26" s="25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C26" s="25" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D26" s="25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E26" s="6">
         <v>8.0000000000000004E-4</v>
@@ -1838,16 +1838,16 @@
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27" s="25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C27" s="25" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D27" s="25" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E27" s="6">
         <v>0</v>
@@ -1870,16 +1870,16 @@
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A28" s="25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C28" s="25" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D28" s="25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E28" s="6">
         <v>8.9999999999999998E-4</v>
@@ -1902,16 +1902,16 @@
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A29" s="25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C29" s="25" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D29" s="25" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E29" s="6">
         <v>0</v>
@@ -1934,16 +1934,16 @@
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A30" s="25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C30" s="25" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D30" s="25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E30" s="6">
         <v>8.0000000000000004E-4</v>
@@ -1964,16 +1964,16 @@
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A31" s="25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C31" s="25" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D31" s="25" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E31" s="6">
         <v>0</v>
@@ -1993,16 +1993,16 @@
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A32" s="25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C32" s="25" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D32" s="25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E32" s="5">
         <v>1E-3</v>
@@ -2022,16 +2022,16 @@
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A33" s="25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C33" s="25" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D33" s="25" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E33" s="5">
         <v>0</v>
@@ -2052,16 +2052,16 @@
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A34" s="25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C34" s="25" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D34" s="25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E34" s="5">
         <v>8.9999999999999998E-4</v>
@@ -2082,16 +2082,16 @@
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A35" s="25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C35" s="25" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D35" s="25" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E35" s="5">
         <v>0</v>
@@ -2112,16 +2112,16 @@
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A36" s="25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C36" s="25" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D36" s="25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E36" s="5">
         <v>1E-3</v>
@@ -2141,16 +2141,16 @@
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A37" s="25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C37" s="25" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D37" s="25" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E37" s="5">
         <v>0</v>
@@ -2170,16 +2170,16 @@
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A38" s="25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C38" s="25" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D38" s="25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E38" s="5">
         <v>1E-3</v>
@@ -2199,16 +2199,16 @@
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A39" s="25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C39" s="25" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D39" s="25" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E39" s="5">
         <v>0</v>
@@ -2231,16 +2231,16 @@
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A40" s="25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C40" s="25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D40" s="25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E40" s="5">
         <v>1E-3</v>
@@ -2263,16 +2263,16 @@
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A41" s="25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C41" s="25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D41" s="25" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E41" s="5">
         <v>0</v>
@@ -2295,16 +2295,16 @@
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A42" s="25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C42" s="25" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D42" s="25" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E42" s="5">
         <v>1.1000000000000001E-3</v>
@@ -2327,16 +2327,16 @@
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A43" s="25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C43" s="25" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D43" s="25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E43" s="5">
         <v>1.1000000000000001E-3</v>
@@ -2366,16 +2366,16 @@
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A44" s="25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C44" s="25" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D44" s="25" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E44" s="5">
         <v>0</v>
@@ -2398,16 +2398,16 @@
     </row>
     <row r="45" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A45" s="25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C45" s="25" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D45" s="25" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E45" s="5">
         <v>1E-3</v>
@@ -2430,16 +2430,16 @@
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A46" s="25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C46" s="25" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D46" s="25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E46" s="5">
         <v>1E-3</v>
@@ -2469,16 +2469,16 @@
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A47" s="25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C47" s="25" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D47" s="25" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E47" s="5">
         <v>0</v>
@@ -2501,16 +2501,16 @@
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A48" s="25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B48" s="25" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C48" s="25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D48" s="25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E48" s="5">
         <v>1E-3</v>
@@ -2533,16 +2533,16 @@
     </row>
     <row r="49" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A49" s="25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B49" s="25" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C49" s="25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D49" s="25" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E49" s="5">
         <v>0</v>
@@ -2565,16 +2565,16 @@
     </row>
     <row r="50" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A50" s="25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B50" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C50" s="25" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D50" s="25" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E50" s="5">
         <v>1.1999999999999999E-3</v>
@@ -2597,16 +2597,16 @@
     </row>
     <row r="51" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A51" s="25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B51" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C51" s="25" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D51" s="25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E51" s="5">
         <v>1.1999999999999999E-3</v>
@@ -2629,16 +2629,16 @@
     </row>
     <row r="52" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A52" s="25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B52" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C52" s="25" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D52" s="25" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E52" s="5">
         <v>0</v>
@@ -2661,16 +2661,16 @@
     </row>
     <row r="53" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A53" s="25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B53" s="25" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C53" s="25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D53" s="25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E53" s="5">
         <v>1.1999999999999999E-3</v>
@@ -2693,16 +2693,16 @@
     </row>
     <row r="54" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A54" s="25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B54" s="25" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C54" s="25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D54" s="25" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E54" s="5">
         <v>0</v>
@@ -2725,16 +2725,16 @@
     </row>
     <row r="55" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A55" s="25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B55" s="25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C55" s="25" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D55" s="25" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E55" s="16">
         <v>1.1000000000000001E-3</v>
@@ -2757,16 +2757,16 @@
     </row>
     <row r="56" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A56" s="25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B56" s="25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C56" s="25" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D56" s="25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E56" s="16">
         <v>1.1000000000000001E-3</v>
@@ -2796,16 +2796,16 @@
     </row>
     <row r="57" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A57" s="25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B57" s="25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C57" s="25" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D57" s="25" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E57" s="16">
         <v>0</v>
@@ -2835,16 +2835,16 @@
     </row>
     <row r="58" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A58" s="25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B58" s="25" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C58" s="25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D58" s="25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E58" s="16">
         <v>1E-3</v>
@@ -2867,16 +2867,16 @@
     </row>
     <row r="59" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A59" s="25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B59" s="25" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C59" s="25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D59" s="25" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E59" s="16">
         <v>0</v>
@@ -2899,16 +2899,16 @@
     </row>
     <row r="60" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A60" s="25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B60" s="25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C60" s="25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D60" s="25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E60" s="16">
         <v>1E-3</v>
@@ -2929,16 +2929,16 @@
     </row>
     <row r="61" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A61" s="25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B61" s="25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C61" s="25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D61" s="25" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E61" s="16">
         <v>0</v>
@@ -2959,16 +2959,16 @@
     </row>
     <row r="62" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A62" s="25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B62" s="24" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C62" s="25" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D62" s="25" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E62" s="16">
         <v>1.2999999999999999E-3</v>
@@ -2989,16 +2989,16 @@
     </row>
     <row r="63" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A63" s="25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B63" s="24" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C63" s="25" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D63" s="25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E63" s="16">
         <v>1.2999999999999999E-3</v>
@@ -3019,16 +3019,16 @@
     </row>
     <row r="64" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A64" s="25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B64" s="24" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C64" s="25" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D64" s="25" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E64" s="16">
         <v>0</v>
@@ -3049,16 +3049,16 @@
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A65" s="25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B65" s="24" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C65" s="25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D65" s="25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E65" s="16">
         <v>1.1999999999999999E-3</v>
@@ -3079,16 +3079,16 @@
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A66" s="25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B66" s="24" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C66" s="25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D66" s="25" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E66" s="16">
         <v>0</v>
@@ -3109,16 +3109,16 @@
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A67" s="25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B67" s="24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C67" s="25" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D67" s="25" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E67" s="16">
         <v>1.1000000000000001E-3</v>
@@ -3139,16 +3139,16 @@
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A68" s="25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B68" s="24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C68" s="25" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D68" s="25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E68" s="16">
         <v>1.1000000000000001E-3</v>
@@ -3169,16 +3169,16 @@
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A69" s="25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B69" s="24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C69" s="25" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D69" s="25" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E69" s="16">
         <v>0</v>
@@ -3199,16 +3199,16 @@
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A70" s="25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B70" s="24" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C70" s="25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D70" s="25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E70" s="16">
         <v>1.1000000000000001E-3</v>
@@ -3229,16 +3229,16 @@
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A71" s="25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B71" s="24" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C71" s="25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D71" s="25" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E71" s="16">
         <v>0</v>
@@ -3259,16 +3259,16 @@
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A72" s="25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B72" s="24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C72" s="25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D72" s="25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E72" s="16">
         <v>1E-3</v>
@@ -3289,16 +3289,16 @@
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A73" s="25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B73" s="24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C73" s="25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D73" s="25" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E73" s="16">
         <v>0</v>
@@ -3319,16 +3319,16 @@
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A74" s="25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B74" s="24" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C74" s="25" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D74" s="25" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E74" s="16">
         <v>1.4E-3</v>
@@ -3349,16 +3349,16 @@
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A75" s="25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B75" s="24" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C75" s="25" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D75" s="25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E75" s="16">
         <v>1.4E-3</v>
@@ -3379,16 +3379,16 @@
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A76" s="25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B76" s="24" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C76" s="25" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D76" s="25" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E76" s="16">
         <v>0</v>
@@ -3409,16 +3409,16 @@
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A77" s="25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B77" s="24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C77" s="25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D77" s="25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E77" s="16">
         <v>1.4E-3</v>
@@ -3439,16 +3439,16 @@
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A78" s="25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B78" s="24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C78" s="25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D78" s="25" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E78" s="16">
         <v>0</v>
@@ -3469,16 +3469,16 @@
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A79" s="25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B79" s="24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C79" s="25" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D79" s="25" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E79" s="16">
         <v>1.2999999999999999E-3</v>
@@ -3499,16 +3499,16 @@
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A80" s="25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B80" s="24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C80" s="25" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D80" s="25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E80" s="16">
         <v>1.2999999999999999E-3</v>
@@ -3529,16 +3529,16 @@
     </row>
     <row r="81" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A81" s="25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B81" s="24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C81" s="25" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D81" s="25" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E81" s="16">
         <v>0</v>
@@ -3559,16 +3559,16 @@
     </row>
     <row r="82" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A82" s="25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B82" s="24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C82" s="25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D82" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E82" s="18">
         <v>1.1000000000000001E-3</v>
@@ -3588,16 +3588,16 @@
     </row>
     <row r="83" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A83" s="25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B83" s="24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C83" s="25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D83" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E83" s="18">
         <v>0</v>
@@ -3617,16 +3617,16 @@
     </row>
     <row r="84" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A84" s="25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B84" s="24" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C84" s="25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D84" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E84" s="18">
         <v>1E-3</v>
@@ -3646,16 +3646,16 @@
     </row>
     <row r="85" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A85" s="25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B85" s="24" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C85" s="25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D85" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E85" s="18">
         <v>0</v>
@@ -3675,16 +3675,16 @@
     </row>
     <row r="86" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A86" s="25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B86" s="24" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C86" s="25" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D86" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E86" s="18">
         <v>1.5E-3</v>
@@ -3704,16 +3704,16 @@
     </row>
     <row r="87" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A87" s="25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B87" s="24" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C87" s="25" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D87" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E87" s="18">
         <v>1.5E-3</v>
@@ -3733,16 +3733,16 @@
     </row>
     <row r="88" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A88" s="25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B88" s="24" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C88" s="25" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D88" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E88" s="18">
         <v>0</v>
@@ -3762,16 +3762,16 @@
     </row>
     <row r="89" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A89" s="25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B89" s="24" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C89" s="25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D89" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E89" s="18">
         <v>1.4E-3</v>
@@ -3791,16 +3791,16 @@
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A90" s="25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B90" s="24" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C90" s="25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D90" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E90" s="18">
         <v>0</v>
@@ -3820,16 +3820,16 @@
     </row>
     <row r="91" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A91" s="25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B91" s="24" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C91" s="25" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D91" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E91" s="18">
         <v>1.2999999999999999E-3</v>
@@ -3849,16 +3849,16 @@
     </row>
     <row r="92" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A92" s="25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B92" s="24" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C92" s="25" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D92" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E92" s="18">
         <v>1.2999999999999999E-3</v>
@@ -3878,16 +3878,16 @@
     </row>
     <row r="93" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A93" s="25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B93" s="24" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C93" s="25" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D93" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E93" s="18">
         <v>0</v>
@@ -3907,16 +3907,16 @@
     </row>
     <row r="94" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A94" s="25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B94" s="24" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C94" s="25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D94" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E94" s="18">
         <v>1.1000000000000001E-3</v>
@@ -3936,16 +3936,16 @@
     </row>
     <row r="95" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A95" s="25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B95" s="24" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C95" s="25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D95" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E95" s="18">
         <v>0</v>
@@ -3965,16 +3965,16 @@
     </row>
     <row r="96" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A96" s="25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B96" s="24" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C96" s="25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D96" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E96" s="18">
         <v>1E-3</v>
@@ -3994,16 +3994,16 @@
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A97" s="25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B97" s="24" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C97" s="25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D97" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E97" s="18">
         <v>0</v>
@@ -4023,16 +4023,16 @@
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A98" s="25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B98" s="24" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C98" s="25" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D98" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E98" s="18">
         <v>1.6000000000000001E-3</v>
@@ -4052,16 +4052,16 @@
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A99" s="25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B99" s="24" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C99" s="25" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D99" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E99" s="18">
         <v>1.6000000000000001E-3</v>
@@ -4081,16 +4081,16 @@
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A100" s="25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B100" s="24" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C100" s="25" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D100" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E100" s="18">
         <v>0</v>
@@ -4110,16 +4110,16 @@
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A101" s="25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B101" s="24" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C101" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="D101" s="12" t="s">
         <v>60</v>
-      </c>
-      <c r="D101" s="12" t="s">
-        <v>61</v>
       </c>
       <c r="E101" s="18">
         <v>1.4E-3</v>
@@ -4139,16 +4139,16 @@
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A102" s="25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B102" s="24" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C102" s="25" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D102" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E102" s="18">
         <v>0</v>
@@ -4168,16 +4168,16 @@
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A103" s="25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B103" s="24" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C103" s="25" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D103" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E103" s="18">
         <v>1.4E-3</v>
@@ -4192,21 +4192,21 @@
         <v>0.51819999999999999</v>
       </c>
       <c r="I103" s="21" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A104" s="25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B104" s="24" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C104" s="25" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D104" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E104" s="18">
         <v>1.4E-3</v>
@@ -4221,21 +4221,21 @@
         <v>0.52049999999999996</v>
       </c>
       <c r="I104" s="21" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A105" s="25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B105" s="24" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C105" s="25" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D105" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E105" s="18">
         <v>0</v>
@@ -4255,16 +4255,16 @@
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A106" s="25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B106" s="24" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C106" s="25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D106" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E106" s="18">
         <v>1.2999999999999999E-3</v>
@@ -4284,16 +4284,16 @@
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A107" s="25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B107" s="24" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C107" s="25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D107" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E107" s="18">
         <v>0</v>
@@ -4313,16 +4313,16 @@
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A108" s="25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B108" s="24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C108" s="25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D108" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E108" s="18">
         <v>1.1999999999999999E-3</v>
@@ -4342,16 +4342,16 @@
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A109" s="25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B109" s="24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C109" s="25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D109" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E109" s="18">
         <v>0</v>
@@ -4371,16 +4371,16 @@
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A110" s="25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B110" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C110" s="25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D110" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E110" s="19">
         <v>1.1000000000000001E-3</v>
@@ -4400,16 +4400,16 @@
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A111" s="25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B111" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C111" s="25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D111" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E111" s="19">
         <v>0</v>
@@ -4429,16 +4429,16 @@
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A112" s="25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B112" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C112" s="25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D112" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E112" s="19">
         <v>1.1000000000000001E-3</v>
@@ -4458,16 +4458,16 @@
     </row>
     <row r="113" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A113" s="25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B113" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C113" s="25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D113" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E113" s="19">
         <v>0</v>
@@ -4487,16 +4487,16 @@
     </row>
     <row r="114" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A114" s="25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B114" s="24" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C114" s="25" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D114" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E114" s="19">
         <v>1.6999999999999999E-3</v>
@@ -4516,16 +4516,16 @@
     </row>
     <row r="115" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A115" s="25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B115" s="24" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C115" s="25" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D115" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E115" s="19">
         <v>1.6999999999999999E-3</v>
@@ -4537,7 +4537,7 @@
         <v>0.62329999999999997</v>
       </c>
       <c r="H115" s="21" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I115" s="20">
         <v>0.56430000000000002</v>
@@ -4545,16 +4545,16 @@
     </row>
     <row r="116" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A116" s="25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B116" s="24" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C116" s="25" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D116" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E116" s="19">
         <v>0</v>
@@ -4574,16 +4574,16 @@
     </row>
     <row r="117" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A117" s="25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B117" s="24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C117" s="25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D117" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E117" s="19">
         <v>1.6000000000000001E-3</v>
@@ -4604,16 +4604,16 @@
     </row>
     <row r="118" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A118" s="25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B118" s="24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C118" s="25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D118" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E118" s="19">
         <v>0</v>
@@ -4634,16 +4634,16 @@
     </row>
     <row r="119" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A119" s="25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B119" s="24" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C119" s="25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D119" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E119" s="19">
         <v>1.4E-3</v>
@@ -4664,16 +4664,16 @@
     </row>
     <row r="120" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A120" s="25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B120" s="24" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C120" s="25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D120" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E120" s="19">
         <v>0</v>
@@ -4694,16 +4694,16 @@
     </row>
     <row r="121" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A121" s="25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B121" s="24" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C121" s="25" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D121" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E121" s="19">
         <v>1.4E-3</v>
@@ -4724,16 +4724,16 @@
     </row>
     <row r="122" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A122" s="25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B122" s="24" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C122" s="25" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D122" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E122" s="19">
         <v>1.4E-3</v>
@@ -4754,16 +4754,16 @@
     </row>
     <row r="123" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A123" s="25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B123" s="24" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C123" s="25" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D123" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E123" s="19">
         <v>0</v>
@@ -4784,16 +4784,16 @@
     </row>
     <row r="124" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A124" s="25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B124" s="24" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C124" s="25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D124" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E124" s="19">
         <v>1.2999999999999999E-3</v>
@@ -4814,16 +4814,16 @@
     </row>
     <row r="125" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A125" s="25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B125" s="24" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C125" s="25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D125" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E125" s="19">
         <v>0</v>
@@ -4844,16 +4844,16 @@
     </row>
     <row r="126" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A126" s="25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B126" s="24" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C126" s="25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D126" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E126" s="19">
         <v>1.1999999999999999E-3</v>
@@ -4874,16 +4874,16 @@
     </row>
     <row r="127" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A127" s="25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B127" s="24" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C127" s="25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D127" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E127" s="19">
         <v>0</v>
@@ -4904,16 +4904,16 @@
     </row>
     <row r="128" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A128" s="25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B128" s="24" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C128" s="25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D128" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E128" s="19">
         <v>1.1000000000000001E-3</v>
@@ -4934,16 +4934,16 @@
     </row>
     <row r="129" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A129" s="25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B129" s="24" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C129" s="25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D129" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E129" s="19">
         <v>0</v>
@@ -4964,16 +4964,16 @@
     </row>
     <row r="130" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A130" s="25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B130" s="24" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C130" s="25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D130" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E130" s="19">
         <v>1.1000000000000001E-3</v>
@@ -5003,16 +5003,16 @@
     </row>
     <row r="131" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A131" s="25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B131" s="24" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C131" s="25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D131" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E131" s="19">
         <v>0</v>
@@ -5042,16 +5042,16 @@
     </row>
     <row r="132" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A132" s="25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B132" s="24" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C132" s="25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D132" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E132" s="19">
         <v>1.6000000000000001E-3</v>
@@ -5072,16 +5072,16 @@
     </row>
     <row r="133" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A133" s="25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B133" s="24" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C133" s="25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D133" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E133" s="19">
         <v>0</v>
@@ -5102,16 +5102,16 @@
     </row>
     <row r="134" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A134" s="25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B134" s="24" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C134" s="25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D134" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E134" s="19">
         <v>1.4E-3</v>
@@ -5132,16 +5132,16 @@
     </row>
     <row r="135" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A135" s="25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B135" s="24" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C135" s="25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D135" s="25" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E135" s="19">
         <v>0</v>
@@ -5162,16 +5162,16 @@
     </row>
     <row r="136" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A136" s="25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B136" s="25" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C136" s="25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D136" s="25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E136" s="5">
         <v>1.2999999999999999E-3</v>
@@ -5192,16 +5192,16 @@
     </row>
     <row r="137" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A137" s="25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B137" s="25" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C137" s="25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D137" s="25" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E137" s="5">
         <v>0</v>
@@ -5222,16 +5222,16 @@
     </row>
     <row r="138" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A138" s="25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B138" s="25" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C138" s="25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D138" s="25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E138" s="5">
         <v>1.1999999999999999E-3</v>
@@ -5252,16 +5252,16 @@
     </row>
     <row r="139" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A139" s="25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B139" s="25" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C139" s="25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D139" s="25" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E139" s="5">
         <v>0</v>
@@ -5282,16 +5282,16 @@
     </row>
     <row r="140" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A140" s="25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B140" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C140" s="25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D140" s="25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E140" s="5">
         <v>1.1000000000000001E-3</v>
@@ -5311,16 +5311,16 @@
     </row>
     <row r="141" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A141" s="25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B141" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C141" s="25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D141" s="25" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E141" s="5">
         <v>0</v>
@@ -5340,16 +5340,16 @@
     </row>
     <row r="142" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A142" s="25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B142" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C142" s="25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D142" s="25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E142" s="5">
         <v>1.1000000000000001E-3</v>
@@ -5369,16 +5369,16 @@
     </row>
     <row r="143" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A143" s="25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B143" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C143" s="25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D143" s="25" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E143" s="5">
         <v>0</v>
@@ -5398,16 +5398,16 @@
     </row>
     <row r="144" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A144" s="25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B144" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C144" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D144" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E144" s="5">
         <v>1.8E-3</v>
@@ -5427,16 +5427,16 @@
     </row>
     <row r="145" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A145" s="25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B145" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C145" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D145" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E145" s="5">
         <v>1.8E-3</v>
@@ -5456,16 +5456,16 @@
     </row>
     <row r="146" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A146" s="25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B146" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C146" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D146" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E146" s="5">
         <v>0</v>
@@ -5485,16 +5485,16 @@
     </row>
     <row r="147" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A147" s="25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B147" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C147" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D147" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E147" s="5">
         <v>1.6999999999999999E-3</v>
@@ -5514,16 +5514,16 @@
     </row>
     <row r="148" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A148" s="25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B148" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C148" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D148" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E148" s="5">
         <v>0</v>
@@ -5543,16 +5543,16 @@
     </row>
     <row r="149" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A149" s="25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B149" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C149" s="12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D149" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E149" s="5">
         <v>1.5E-3</v>
@@ -5572,16 +5572,16 @@
     </row>
     <row r="150" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A150" s="25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B150" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C150" s="12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D150" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E150" s="5">
         <v>1.5E-3</v>
@@ -5611,16 +5611,16 @@
     </row>
     <row r="151" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A151" s="25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B151" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C151" s="12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D151" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E151" s="5">
         <v>0</v>
@@ -5640,16 +5640,16 @@
     </row>
     <row r="152" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A152" s="25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B152" s="14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C152" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D152" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E152" s="5">
         <v>1.2999999999999999E-3</v>
@@ -5669,16 +5669,16 @@
     </row>
     <row r="153" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A153" s="25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B153" s="14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C153" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D153" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E153" s="5">
         <v>0</v>
@@ -5698,16 +5698,16 @@
     </row>
     <row r="154" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A154" s="25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B154" s="14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C154" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D154" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E154" s="5">
         <v>1.1999999999999999E-3</v>
@@ -5727,16 +5727,16 @@
     </row>
     <row r="155" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A155" s="25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B155" s="14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C155" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D155" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E155" s="5">
         <v>0</v>
@@ -5756,16 +5756,16 @@
     </row>
     <row r="156" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A156" s="25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B156" s="14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C156" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D156" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E156" s="5">
         <v>1.1000000000000001E-3</v>
@@ -5785,16 +5785,16 @@
     </row>
     <row r="157" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A157" s="25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B157" s="14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C157" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D157" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E157" s="5">
         <v>0</v>
@@ -5814,16 +5814,16 @@
     </row>
     <row r="158" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A158" s="25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B158" s="24" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C158" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D158" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E158" s="5">
         <v>1.6999999999999999E-3</v>
@@ -5843,16 +5843,16 @@
     </row>
     <row r="159" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A159" s="25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B159" s="24" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C159" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D159" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E159" s="5">
         <v>0</v>
@@ -5872,16 +5872,16 @@
     </row>
     <row r="160" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A160" s="25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B160" s="24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C160" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D160" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E160" s="5">
         <v>1.5E-3</v>
@@ -5901,16 +5901,16 @@
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A161" s="25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B161" s="24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C161" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D161" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E161" s="5">
         <v>0</v>
@@ -5930,16 +5930,16 @@
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A162" s="25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B162" s="24" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C162" s="25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D162" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E162" s="5">
         <v>1.2999999999999999E-3</v>
@@ -5959,16 +5959,16 @@
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A163" s="25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B163" s="24" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C163" s="25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D163" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E163" s="5">
         <v>0</v>
@@ -5988,16 +5988,16 @@
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A164" s="25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B164" s="24" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C164" s="25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D164" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E164" s="5">
         <v>1.1999999999999999E-3</v>
@@ -6017,16 +6017,16 @@
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A165" s="25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B165" s="24" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C165" s="25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D165" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E165" s="5">
         <v>0</v>
@@ -6046,16 +6046,16 @@
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A166" s="25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B166" s="24" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C166" s="25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D166" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E166" s="5">
         <v>1.1000000000000001E-3</v>
@@ -6075,16 +6075,16 @@
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A167" s="25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B167" s="24" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C167" s="25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D167" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E167" s="5">
         <v>0</v>
@@ -6104,16 +6104,16 @@
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A168" s="25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B168" s="24" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C168" s="25" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D168" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E168" s="5">
         <v>1.9E-3</v>
@@ -6133,16 +6133,16 @@
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A169" s="25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B169" s="24" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C169" s="25" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D169" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E169" s="5">
         <v>1.9E-3</v>
@@ -6162,16 +6162,16 @@
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A170" s="25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B170" s="24" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C170" s="25" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D170" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E170" s="5">
         <v>0</v>
@@ -6191,16 +6191,16 @@
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A171" s="25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B171" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C171" s="25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D171" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E171" s="5">
         <v>1.6999999999999999E-3</v>
@@ -6220,16 +6220,16 @@
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A172" s="25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B172" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C172" s="25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D172" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E172" s="5">
         <v>0</v>
@@ -6249,16 +6249,16 @@
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A173" s="25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B173" s="24" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C173" s="25" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D173" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E173" s="5">
         <v>1.6000000000000001E-3</v>
@@ -6278,16 +6278,16 @@
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A174" s="25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B174" s="24" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C174" s="25" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D174" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E174" s="5">
         <v>1.6000000000000001E-3</v>
@@ -6307,16 +6307,16 @@
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A175" s="25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B175" s="24" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C175" s="25" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D175" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E175" s="5">
         <v>0</v>
@@ -6336,16 +6336,16 @@
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A176" s="25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B176" s="24" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C176" s="25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D176" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E176" s="5">
         <v>1.5E-3</v>
@@ -6365,16 +6365,16 @@
     </row>
     <row r="177" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A177" s="25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B177" s="24" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C177" s="25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D177" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E177" s="5">
         <v>0</v>
@@ -6394,16 +6394,16 @@
     </row>
     <row r="178" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A178" s="25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B178" s="24" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C178" s="25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D178" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E178" s="5">
         <v>1.2999999999999999E-3</v>
@@ -6423,16 +6423,16 @@
     </row>
     <row r="179" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A179" s="25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B179" s="24" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C179" s="25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D179" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E179" s="5">
         <v>0</v>
@@ -6452,16 +6452,16 @@
     </row>
     <row r="180" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A180" s="25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B180" s="24" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C180" s="25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D180" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E180" s="5">
         <v>1.1999999999999999E-3</v>
@@ -6481,16 +6481,16 @@
     </row>
     <row r="181" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A181" s="25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B181" s="24" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C181" s="25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D181" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E181" s="5">
         <v>0</v>
@@ -6510,16 +6510,16 @@
     </row>
     <row r="182" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A182" s="25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B182" s="24" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C182" s="25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D182" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E182" s="5">
         <v>1.1000000000000001E-3</v>
@@ -6539,16 +6539,16 @@
     </row>
     <row r="183" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A183" s="25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B183" s="24" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C183" s="25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D183" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E183" s="5">
         <v>0</v>
@@ -6568,16 +6568,16 @@
     </row>
     <row r="184" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A184" s="25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B184" s="25" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C184" s="25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D184" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E184" s="5">
         <v>1.6999999999999999E-3</v>
@@ -6597,16 +6597,16 @@
     </row>
     <row r="185" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A185" s="25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B185" s="25" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C185" s="25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D185" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E185" s="5">
         <v>0</v>
@@ -6626,16 +6626,16 @@
     </row>
     <row r="186" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A186" s="25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B186" s="25" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C186" s="25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D186" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E186" s="5">
         <v>1.5E-3</v>
@@ -6655,16 +6655,16 @@
     </row>
     <row r="187" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A187" s="25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B187" s="25" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C187" s="25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D187" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E187" s="5">
         <v>0</v>
@@ -6684,16 +6684,16 @@
     </row>
     <row r="188" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A188" s="25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B188" s="15" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C188" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D188" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E188" s="5">
         <v>2E-3</v>
@@ -6713,16 +6713,16 @@
     </row>
     <row r="189" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A189" s="25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B189" s="15" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C189" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D189" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E189" s="5">
         <v>2E-3</v>
@@ -6752,16 +6752,16 @@
     </row>
     <row r="190" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A190" s="25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B190" s="15" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C190" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D190" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E190" s="5">
         <v>0</v>
@@ -6791,16 +6791,16 @@
     </row>
     <row r="191" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A191" s="25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B191" s="24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C191" s="25" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D191" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E191" s="5">
         <v>1.8E-3</v>
@@ -6820,16 +6820,16 @@
     </row>
     <row r="192" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A192" s="25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B192" s="24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C192" s="25" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D192" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E192" s="5">
         <v>1.8E-3</v>
@@ -6859,16 +6859,16 @@
     </row>
     <row r="193" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A193" s="25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B193" s="24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C193" s="25" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D193" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E193" s="5">
         <v>0</v>
@@ -6898,16 +6898,16 @@
     </row>
     <row r="194" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A194" s="25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B194" s="24" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C194" s="25" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D194" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E194" s="5">
         <v>1.6000000000000001E-3</v>
@@ -6927,16 +6927,16 @@
     </row>
     <row r="195" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A195" s="25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B195" s="24" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C195" s="25" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D195" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E195" s="5">
         <v>0</v>
@@ -6966,16 +6966,16 @@
     </row>
     <row r="196" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A196" s="25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B196" s="24" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C196" s="25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D196" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E196" s="5">
         <v>1.5E-3</v>
@@ -6995,16 +6995,16 @@
     </row>
     <row r="197" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A197" s="25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B197" s="24" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C197" s="25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D197" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E197" s="5">
         <v>0</v>
@@ -7034,16 +7034,16 @@
     </row>
     <row r="198" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A198" s="25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B198" s="24" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C198" s="25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D198" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E198" s="5">
         <v>1.4E-3</v>
@@ -7063,16 +7063,16 @@
     </row>
     <row r="199" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A199" s="25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B199" s="24" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C199" s="25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D199" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E199" s="5">
         <v>0</v>
@@ -7102,16 +7102,16 @@
     </row>
     <row r="200" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A200" s="25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B200" s="24" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C200" s="25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D200" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E200" s="5">
         <v>1.1999999999999999E-3</v>
@@ -7131,16 +7131,16 @@
     </row>
     <row r="201" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A201" s="25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B201" s="24" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C201" s="25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D201" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E201" s="5">
         <v>0</v>
@@ -7170,16 +7170,16 @@
     </row>
     <row r="202" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A202" s="25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B202" s="24" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C202" s="25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D202" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E202" s="5">
         <v>1.1000000000000001E-3</v>
@@ -7199,16 +7199,16 @@
     </row>
     <row r="203" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A203" s="25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B203" s="22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C203" s="25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D203" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E203" s="5">
         <v>0</v>
@@ -7228,16 +7228,16 @@
     </row>
     <row r="204" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A204" s="25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B204" s="24" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C204" s="25" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D204" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E204" s="5">
         <v>2.3999999999999998E-3</v>
@@ -7257,16 +7257,16 @@
     </row>
     <row r="205" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A205" s="25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B205" s="24" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C205" s="25" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D205" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E205" s="5">
         <v>2.3999999999999998E-3</v>
@@ -7286,16 +7286,16 @@
     </row>
     <row r="206" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A206" s="25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B206" s="24" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C206" s="25" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D206" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E206" s="5">
         <v>0</v>
@@ -7315,16 +7315,16 @@
     </row>
     <row r="207" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A207" s="25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B207" s="24" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C207" s="25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D207" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E207" s="5">
         <v>2.2000000000000001E-3</v>
@@ -7344,16 +7344,16 @@
     </row>
     <row r="208" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A208" s="25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B208" s="24" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C208" s="25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D208" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E208" s="5">
         <v>0</v>
@@ -7373,16 +7373,16 @@
     </row>
     <row r="209" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A209" s="25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B209" s="24" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C209" s="25" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D209" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E209" s="5">
         <v>1.9E-3</v>
@@ -7402,16 +7402,16 @@
     </row>
     <row r="210" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A210" s="25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B210" s="24" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C210" s="25" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D210" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E210" s="5">
         <v>1.9E-3</v>
@@ -7431,16 +7431,16 @@
     </row>
     <row r="211" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A211" s="25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B211" s="24" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C211" s="25" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D211" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E211" s="5">
         <v>0</v>
@@ -7460,16 +7460,16 @@
     </row>
     <row r="212" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A212" s="25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B212" s="24" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C212" s="25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D212" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E212" s="5">
         <v>1.6000000000000001E-3</v>
@@ -7489,16 +7489,16 @@
     </row>
     <row r="213" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A213" s="25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B213" s="24" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C213" s="25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D213" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E213" s="5">
         <v>0</v>
@@ -7518,16 +7518,16 @@
     </row>
     <row r="214" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A214" s="25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B214" s="24" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C214" s="25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D214" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E214" s="5">
         <v>1.5E-3</v>
@@ -7547,16 +7547,16 @@
     </row>
     <row r="215" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A215" s="25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B215" s="24" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C215" s="25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D215" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E215" s="5">
         <v>0</v>
@@ -7576,16 +7576,16 @@
     </row>
     <row r="216" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A216" s="25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B216" s="24" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C216" s="25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D216" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E216" s="5">
         <v>1.4E-3</v>
@@ -7605,16 +7605,16 @@
     </row>
     <row r="217" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A217" s="25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B217" s="24" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C217" s="25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D217" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E217" s="5">
         <v>0</v>
@@ -7634,16 +7634,16 @@
     </row>
     <row r="218" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A218" s="25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B218" s="24" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C218" s="25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D218" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E218" s="5">
         <v>1.2999999999999999E-3</v>
@@ -7663,16 +7663,16 @@
     </row>
     <row r="219" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A219" s="25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B219" s="24" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C219" s="25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D219" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E219" s="5">
         <v>0</v>
@@ -7692,16 +7692,16 @@
     </row>
     <row r="220" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A220" s="25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B220" s="24" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C220" s="25" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D220" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E220" s="5">
         <v>2.8999999999999998E-3</v>
@@ -7721,16 +7721,16 @@
     </row>
     <row r="221" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A221" s="25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B221" s="24" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C221" s="25" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D221" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E221" s="5">
         <v>2.8999999999999998E-3</v>
@@ -7760,16 +7760,16 @@
     </row>
     <row r="222" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A222" s="25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B222" s="24" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C222" s="25" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D222" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E222" s="5">
         <v>0</v>
@@ -7789,16 +7789,16 @@
     </row>
     <row r="223" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A223" s="25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B223" s="24" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C223" s="25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D223" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E223" s="5">
         <v>2.5999999999999999E-3</v>
@@ -7818,16 +7818,16 @@
     </row>
     <row r="224" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A224" s="25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B224" s="24" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C224" s="25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D224" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E224" s="5">
         <v>0</v>
@@ -7847,16 +7847,16 @@
     </row>
     <row r="225" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A225" s="25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B225" s="24" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C225" s="25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D225" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E225" s="5">
         <v>2.3E-3</v>
@@ -7876,16 +7876,16 @@
     </row>
     <row r="226" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A226" s="25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B226" s="24" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C226" s="25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D226" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E226" s="5">
         <v>0</v>
@@ -7905,16 +7905,16 @@
     </row>
     <row r="227" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A227" s="25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B227" s="24" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C227" s="25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D227" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E227" s="5">
         <v>1.8E-3</v>
@@ -7934,16 +7934,16 @@
     </row>
     <row r="228" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A228" s="25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B228" s="24" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C228" s="25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D228" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E228" s="5">
         <v>0</v>
@@ -7963,16 +7963,16 @@
     </row>
     <row r="229" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A229" s="25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B229" s="24" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C229" s="25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D229" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E229" s="5">
         <v>1.6000000000000001E-3</v>
@@ -7992,16 +7992,16 @@
     </row>
     <row r="230" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A230" s="25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B230" s="24" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C230" s="25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D230" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E230" s="5">
         <v>0</v>
@@ -8021,16 +8021,16 @@
     </row>
     <row r="231" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A231" s="25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B231" s="24" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C231" s="25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D231" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E231" s="5">
         <v>1.5E-3</v>
@@ -8050,16 +8050,16 @@
     </row>
     <row r="232" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A232" s="25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B232" s="24" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C232" s="25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D232" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E232" s="5">
         <v>0</v>
@@ -8079,16 +8079,16 @@
     </row>
     <row r="233" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A233" s="25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B233" s="24" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C233" s="25" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D233" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E233" s="5">
         <v>2.8999999999999998E-3</v>
@@ -8109,16 +8109,16 @@
     </row>
     <row r="234" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A234" s="25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B234" s="24" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C234" s="25" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D234" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E234" s="5">
         <v>2.8999999999999998E-3</v>
@@ -8148,16 +8148,16 @@
     </row>
     <row r="235" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A235" s="25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B235" s="24" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C235" s="25" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D235" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E235" s="5">
         <v>0</v>
@@ -8178,16 +8178,16 @@
     </row>
     <row r="236" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A236" s="25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B236" s="25" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C236" s="25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D236" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E236" s="5">
         <v>2.5999999999999999E-3</v>
@@ -8208,16 +8208,16 @@
     </row>
     <row r="237" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A237" s="25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B237" s="25" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C237" s="25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D237" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E237" s="5">
         <v>0</v>
@@ -8238,16 +8238,16 @@
     </row>
     <row r="238" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A238" s="25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B238" s="25" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C238" s="25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D238" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E238" s="5">
         <v>2.3999999999999998E-3</v>
@@ -8268,16 +8268,16 @@
     </row>
     <row r="239" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A239" s="25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B239" s="25" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C239" s="25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D239" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E239" s="5">
         <v>0</v>
@@ -8298,16 +8298,16 @@
     </row>
     <row r="240" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A240" s="25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B240" s="25" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C240" s="25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D240" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E240" s="5">
         <v>1.8E-3</v>
@@ -8327,16 +8327,16 @@
     </row>
     <row r="241" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A241" s="25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B241" s="25" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C241" s="25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D241" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E241" s="5">
         <v>0</v>
@@ -8356,16 +8356,16 @@
     </row>
     <row r="242" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A242" s="25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B242" s="25" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C242" s="25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D242" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E242" s="5">
         <v>1.6000000000000001E-3</v>
@@ -8385,16 +8385,16 @@
     </row>
     <row r="243" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A243" s="25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B243" s="25" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C243" s="25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D243" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E243" s="5">
         <v>0</v>
@@ -8414,16 +8414,16 @@
     </row>
     <row r="244" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A244" s="25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B244" s="25" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C244" s="25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D244" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E244" s="5">
         <v>1.5E-3</v>
@@ -8443,16 +8443,16 @@
     </row>
     <row r="245" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A245" s="25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B245" s="25" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C245" s="25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D245" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E245" s="5">
         <v>0</v>
@@ -8472,16 +8472,16 @@
     </row>
     <row r="246" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A246" s="25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B246" s="24" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C246" s="25" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D246" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E246" s="6">
         <v>3.0999999999999999E-3</v>
@@ -8501,16 +8501,16 @@
     </row>
     <row r="247" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A247" s="25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B247" s="24" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C247" s="25" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D247" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E247" s="6">
         <v>3.0999999999999999E-3</v>
@@ -8530,16 +8530,16 @@
     </row>
     <row r="248" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A248" s="25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B248" s="24" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C248" s="25" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D248" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E248" s="6">
         <v>0</v>
@@ -8559,16 +8559,16 @@
     </row>
     <row r="249" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A249" s="25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B249" s="25" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C249" s="25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D249" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E249" s="5">
         <v>2.7000000000000001E-3</v>
@@ -8588,16 +8588,16 @@
     </row>
     <row r="250" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A250" s="25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B250" s="25" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C250" s="25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D250" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E250" s="5">
         <v>0</v>
@@ -8617,16 +8617,16 @@
     </row>
     <row r="251" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A251" s="25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B251" s="25" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C251" s="25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D251" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E251" s="5">
         <v>2.3999999999999998E-3</v>
@@ -8646,16 +8646,16 @@
     </row>
     <row r="252" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A252" s="25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B252" s="25" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C252" s="25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D252" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E252" s="5">
         <v>0</v>
@@ -8675,16 +8675,16 @@
     </row>
     <row r="253" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A253" s="25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B253" s="25" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C253" s="25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D253" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E253" s="5">
         <v>1.9E-3</v>
@@ -8704,16 +8704,16 @@
     </row>
     <row r="254" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A254" s="25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B254" s="25" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C254" s="25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D254" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E254" s="5">
         <v>0</v>
@@ -8733,16 +8733,16 @@
     </row>
     <row r="255" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A255" s="25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B255" s="25" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C255" s="25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D255" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E255" s="5">
         <v>1.6999999999999999E-3</v>
@@ -8762,16 +8762,16 @@
     </row>
     <row r="256" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A256" s="25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B256" s="25" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C256" s="25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D256" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E256" s="5">
         <v>0</v>
@@ -8791,16 +8791,16 @@
     </row>
     <row r="257" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A257" s="25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B257" s="25" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C257" s="25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D257" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E257" s="5">
         <v>1.5E-3</v>
@@ -8820,16 +8820,16 @@
     </row>
     <row r="258" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A258" s="25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B258" s="25" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C258" s="25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D258" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E258" s="5">
         <v>0</v>
@@ -8849,16 +8849,16 @@
     </row>
     <row r="259" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A259" s="25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B259" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C259" s="25" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D259" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E259" s="5">
         <v>3.2000000000000002E-3</v>
@@ -8878,16 +8878,16 @@
     </row>
     <row r="260" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A260" s="25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B260" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C260" s="25" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D260" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E260" s="5">
         <v>3.2000000000000002E-3</v>
@@ -8917,16 +8917,16 @@
     </row>
     <row r="261" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A261" s="25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B261" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C261" s="25" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D261" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E261" s="5">
         <v>0</v>
@@ -8956,16 +8956,16 @@
     </row>
     <row r="262" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A262" s="25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B262" s="24" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C262" s="25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D262" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E262" s="5">
         <v>2.8E-3</v>
@@ -8985,16 +8985,16 @@
     </row>
     <row r="263" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A263" s="25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B263" s="24" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C263" s="25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D263" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E263" s="5">
         <v>0</v>
@@ -9024,16 +9024,16 @@
     </row>
     <row r="264" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A264" s="25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B264" s="24" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C264" s="25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D264" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E264" s="5">
         <v>2.5999999999999999E-3</v>
@@ -9053,16 +9053,16 @@
     </row>
     <row r="265" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A265" s="25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B265" s="24" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C265" s="25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D265" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E265" s="5">
         <v>0</v>
@@ -9092,16 +9092,16 @@
     </row>
     <row r="266" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A266" s="25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B266" s="24" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C266" s="25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D266" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E266" s="5">
         <v>1.9E-3</v>
@@ -9121,16 +9121,16 @@
     </row>
     <row r="267" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A267" s="25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B267" s="24" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C267" s="25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D267" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E267" s="5">
         <v>0</v>
@@ -9160,16 +9160,16 @@
     </row>
     <row r="268" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A268" s="25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B268" s="24" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C268" s="25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D268" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E268" s="5">
         <v>1.6999999999999999E-3</v>
@@ -9189,16 +9189,16 @@
     </row>
     <row r="269" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A269" s="25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B269" s="24" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C269" s="25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D269" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E269" s="5">
         <v>0</v>
@@ -9228,16 +9228,16 @@
     </row>
     <row r="270" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A270" s="25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B270" s="24" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C270" s="25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D270" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E270" s="6">
         <v>1.6000000000000001E-3</v>
@@ -9257,16 +9257,16 @@
     </row>
     <row r="271" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A271" s="25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B271" s="24" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C271" s="25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D271" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E271" s="6">
         <v>0</v>

--- a/ASME B1.1 New.xlsx
+++ b/ASME B1.1 New.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1092" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1156" uniqueCount="154">
   <si>
     <t>Designation</t>
   </si>
@@ -513,6 +513,27 @@
   </si>
   <si>
     <t>Thread</t>
+  </si>
+  <si>
+    <t>1-1/8-7</t>
+  </si>
+  <si>
+    <t>1-1/8-8</t>
+  </si>
+  <si>
+    <t>1-1/8-12</t>
+  </si>
+  <si>
+    <t>1-1/8-16</t>
+  </si>
+  <si>
+    <t>1-1/8-18</t>
+  </si>
+  <si>
+    <t>1-1/8-20</t>
+  </si>
+  <si>
+    <t>1-1/8-28</t>
   </si>
 </sst>
 </file>
@@ -638,7 +659,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -714,6 +735,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1004,8 +1028,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T368"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A235" workbookViewId="0">
+      <selection activeCell="G271" sqref="G271"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2048,7 +2072,7 @@
       <c r="I33" s="5">
         <v>0.16289999999999999</v>
       </c>
-      <c r="N33" s="27"/>
+      <c r="N33" s="28"/>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A34" s="25" t="s">
@@ -2078,7 +2102,7 @@
       <c r="I34" s="5">
         <v>0.16880000000000001</v>
       </c>
-      <c r="N34" s="28"/>
+      <c r="N34" s="29"/>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A35" s="25" t="s">
@@ -2108,7 +2132,7 @@
       <c r="I35" s="5">
         <v>0.16969999999999999</v>
       </c>
-      <c r="N35" s="28"/>
+      <c r="N35" s="29"/>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A36" s="25" t="s">
@@ -9285,118 +9309,470 @@
       </c>
     </row>
     <row r="272" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="E272" s="6"/>
-      <c r="F272" s="6"/>
-      <c r="G272" s="6"/>
-      <c r="H272" s="6"/>
-      <c r="I272" s="6"/>
-    </row>
-    <row r="273" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E273" s="6"/>
-      <c r="F273" s="6"/>
-      <c r="G273" s="6"/>
-      <c r="H273" s="6"/>
-      <c r="I273" s="6"/>
-    </row>
-    <row r="274" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E274" s="6"/>
-      <c r="F274" s="6"/>
-      <c r="G274" s="6"/>
-      <c r="H274" s="6"/>
-      <c r="I274" s="6"/>
-    </row>
-    <row r="275" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E275" s="6"/>
-      <c r="F275" s="6"/>
-      <c r="G275" s="6"/>
-      <c r="H275" s="6"/>
-      <c r="I275" s="6"/>
-    </row>
-    <row r="276" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E276" s="6"/>
-      <c r="F276" s="6"/>
-      <c r="G276" s="6"/>
-      <c r="H276" s="6"/>
-      <c r="I276" s="6"/>
-    </row>
-    <row r="277" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E277" s="6"/>
-      <c r="F277" s="6"/>
-      <c r="G277" s="6"/>
-      <c r="H277" s="6"/>
-      <c r="I277" s="6"/>
-    </row>
-    <row r="278" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E278" s="6"/>
-      <c r="F278" s="6"/>
-      <c r="G278" s="6"/>
-      <c r="H278" s="6"/>
-      <c r="I278" s="6"/>
-    </row>
-    <row r="279" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E279" s="6"/>
-      <c r="F279" s="6"/>
-      <c r="G279" s="6"/>
-      <c r="H279" s="6"/>
-      <c r="I279" s="6"/>
-    </row>
-    <row r="280" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E280" s="6"/>
-      <c r="F280" s="6"/>
-      <c r="G280" s="6"/>
-      <c r="H280" s="6"/>
-      <c r="I280" s="6"/>
-    </row>
-    <row r="281" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E281" s="6"/>
-      <c r="F281" s="6"/>
-      <c r="G281" s="6"/>
-      <c r="H281" s="6"/>
-      <c r="I281" s="6"/>
-    </row>
-    <row r="282" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E282" s="6"/>
-      <c r="F282" s="6"/>
-      <c r="G282" s="6"/>
-      <c r="H282" s="6"/>
-      <c r="I282" s="6"/>
-    </row>
-    <row r="283" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E283" s="6"/>
-      <c r="F283" s="6"/>
-      <c r="G283" s="6"/>
-      <c r="H283" s="6"/>
-      <c r="I283" s="6"/>
-    </row>
-    <row r="284" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E284" s="6"/>
-      <c r="F284" s="6"/>
-      <c r="G284" s="6"/>
-      <c r="H284" s="6"/>
-      <c r="I284" s="6"/>
-    </row>
-    <row r="285" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E285" s="6"/>
-      <c r="F285" s="6"/>
-      <c r="G285" s="6"/>
-      <c r="H285" s="6"/>
-      <c r="I285" s="6"/>
-    </row>
-    <row r="286" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E286" s="6"/>
-      <c r="F286" s="6"/>
-      <c r="G286" s="6"/>
-      <c r="H286" s="6"/>
-      <c r="I286" s="6"/>
-    </row>
-    <row r="287" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E287" s="6"/>
-      <c r="F287" s="6"/>
-      <c r="G287" s="6"/>
-      <c r="H287" s="6"/>
-      <c r="I287" s="6"/>
-    </row>
-    <row r="288" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="A272" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="B272" s="25" t="s">
+        <v>147</v>
+      </c>
+      <c r="C272" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="D272" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="E272" s="6">
+        <v>2.2000000000000001E-3</v>
+      </c>
+      <c r="F272" s="6">
+        <v>1.0982000000000001</v>
+      </c>
+      <c r="G272" s="6">
+        <v>1.1228</v>
+      </c>
+      <c r="H272" s="5">
+        <v>1.0190999999999999</v>
+      </c>
+      <c r="I272" s="6">
+        <v>1.03</v>
+      </c>
+    </row>
+    <row r="273" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A273" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="B273" s="27" t="s">
+        <v>147</v>
+      </c>
+      <c r="C273" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="D273" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="E273" s="6">
+        <v>2.2000000000000001E-3</v>
+      </c>
+      <c r="F273" s="6">
+        <v>1.1064000000000001</v>
+      </c>
+      <c r="G273" s="6">
+        <v>1.1228</v>
+      </c>
+      <c r="H273" s="5">
+        <v>1.0227999999999999</v>
+      </c>
+      <c r="I273" s="6">
+        <v>1.03</v>
+      </c>
+    </row>
+    <row r="274" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A274" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="B274" s="27" t="s">
+        <v>147</v>
+      </c>
+      <c r="C274" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="D274" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="E274" s="6">
+        <v>0</v>
+      </c>
+      <c r="F274" s="6">
+        <v>1.1086</v>
+      </c>
+      <c r="G274" s="6">
+        <v>1.125</v>
+      </c>
+      <c r="H274" s="5">
+        <v>1.0267999999999999</v>
+      </c>
+      <c r="I274" s="6">
+        <v>1.0322</v>
+      </c>
+    </row>
+    <row r="275" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A275" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="B275" s="25" t="s">
+        <v>148</v>
+      </c>
+      <c r="C275" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="D275" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="E275" s="6">
+        <v>2.0999999999999999E-3</v>
+      </c>
+      <c r="F275" s="6">
+        <v>1.1079000000000001</v>
+      </c>
+      <c r="G275" s="6">
+        <v>1.1229</v>
+      </c>
+      <c r="H275" s="5">
+        <v>1.0347999999999999</v>
+      </c>
+      <c r="I275" s="6">
+        <v>1.0417000000000001</v>
+      </c>
+    </row>
+    <row r="276" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A276" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="B276" s="27" t="s">
+        <v>148</v>
+      </c>
+      <c r="C276" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="D276" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="E276" s="6">
+        <v>0</v>
+      </c>
+      <c r="F276" s="6">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="G276" s="6">
+        <v>1.125</v>
+      </c>
+      <c r="H276" s="5">
+        <v>1.0386</v>
+      </c>
+      <c r="I276" s="6">
+        <v>1.0438000000000001</v>
+      </c>
+    </row>
+    <row r="277" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A277" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="B277" s="27" t="s">
+        <v>149</v>
+      </c>
+      <c r="C277" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="D277" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="E277" s="6">
+        <v>1.8E-3</v>
+      </c>
+      <c r="F277" s="6">
+        <v>1.1060000000000001</v>
+      </c>
+      <c r="G277" s="6">
+        <v>1.1232</v>
+      </c>
+      <c r="H277" s="5">
+        <v>1.0601</v>
+      </c>
+      <c r="I277" s="6">
+        <v>1.0690999999999999</v>
+      </c>
+    </row>
+    <row r="278" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A278" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="B278" s="27" t="s">
+        <v>149</v>
+      </c>
+      <c r="C278" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="D278" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="E278" s="6">
+        <v>1.8E-3</v>
+      </c>
+      <c r="F278" s="6">
+        <v>1.1117999999999999</v>
+      </c>
+      <c r="G278" s="6">
+        <v>1.1232</v>
+      </c>
+      <c r="H278" s="5">
+        <v>1.0630999999999999</v>
+      </c>
+      <c r="I278" s="6">
+        <v>1.0690999999999999</v>
+      </c>
+    </row>
+    <row r="279" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A279" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="B279" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="C279" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="D279" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="E279" s="6">
+        <v>0</v>
+      </c>
+      <c r="F279" s="6">
+        <v>1.1135999999999999</v>
+      </c>
+      <c r="G279" s="6">
+        <v>1.125</v>
+      </c>
+      <c r="H279" s="5">
+        <v>1.0664</v>
+      </c>
+      <c r="I279" s="6">
+        <v>1.0709</v>
+      </c>
+    </row>
+    <row r="280" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A280" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="B280" s="25" t="s">
+        <v>150</v>
+      </c>
+      <c r="C280" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="D280" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="E280" s="6">
+        <v>1.5E-3</v>
+      </c>
+      <c r="F280" s="6">
+        <v>1.1141000000000001</v>
+      </c>
+      <c r="G280" s="6">
+        <v>1.1234999999999999</v>
+      </c>
+      <c r="H280" s="5">
+        <v>1.0779000000000001</v>
+      </c>
+      <c r="I280" s="6">
+        <v>1.0829</v>
+      </c>
+    </row>
+    <row r="281" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A281" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="B281" s="27" t="s">
+        <v>150</v>
+      </c>
+      <c r="C281" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="D281" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="E281" s="6">
+        <v>0</v>
+      </c>
+      <c r="F281" s="6">
+        <v>1.1155999999999999</v>
+      </c>
+      <c r="G281" s="6">
+        <v>1.125</v>
+      </c>
+      <c r="H281" s="5">
+        <v>1.0806</v>
+      </c>
+      <c r="I281" s="6">
+        <v>1.0844</v>
+      </c>
+    </row>
+    <row r="282" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A282" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="B282" s="25" t="s">
+        <v>151</v>
+      </c>
+      <c r="C282" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="D282" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="E282" s="6">
+        <v>1.4E-3</v>
+      </c>
+      <c r="F282" s="6">
+        <v>1.1149</v>
+      </c>
+      <c r="G282" s="6">
+        <v>1.1235999999999999</v>
+      </c>
+      <c r="H282" s="5">
+        <v>1.0827</v>
+      </c>
+      <c r="I282" s="6">
+        <v>1.0874999999999999</v>
+      </c>
+    </row>
+    <row r="283" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A283" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="B283" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="C283" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="D283" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="E283" s="6">
+        <v>0</v>
+      </c>
+      <c r="F283" s="6">
+        <v>1.1163000000000001</v>
+      </c>
+      <c r="G283" s="6">
+        <v>1.125</v>
+      </c>
+      <c r="H283" s="5">
+        <v>1.0852999999999999</v>
+      </c>
+      <c r="I283" s="6">
+        <v>1.0889</v>
+      </c>
+    </row>
+    <row r="284" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A284" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="B284" s="25" t="s">
+        <v>152</v>
+      </c>
+      <c r="C284" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="D284" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="E284" s="6">
+        <v>1.4E-3</v>
+      </c>
+      <c r="F284" s="6">
+        <v>1.1154999999999999</v>
+      </c>
+      <c r="G284" s="6">
+        <v>1.1235999999999999</v>
+      </c>
+      <c r="H284" s="5">
+        <v>1.0865</v>
+      </c>
+      <c r="I284" s="6">
+        <v>1.0911</v>
+      </c>
+    </row>
+    <row r="285" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A285" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="B285" s="27" t="s">
+        <v>152</v>
+      </c>
+      <c r="C285" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="D285" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="E285" s="6">
+        <v>0</v>
+      </c>
+      <c r="F285" s="6">
+        <v>1.1169</v>
+      </c>
+      <c r="G285" s="6">
+        <v>1.125</v>
+      </c>
+      <c r="H285" s="5">
+        <v>1.089</v>
+      </c>
+      <c r="I285" s="6">
+        <v>1.0925</v>
+      </c>
+    </row>
+    <row r="286" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A286" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="B286" s="25" t="s">
+        <v>153</v>
+      </c>
+      <c r="C286" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="D286" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="E286" s="6">
+        <v>1.1999999999999999E-3</v>
+      </c>
+      <c r="F286" s="6">
+        <v>1.1173</v>
+      </c>
+      <c r="G286" s="6">
+        <v>1.1237999999999999</v>
+      </c>
+      <c r="H286" s="5">
+        <v>1.0966</v>
+      </c>
+      <c r="I286" s="6">
+        <v>1.1006</v>
+      </c>
+    </row>
+    <row r="287" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A287" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="B287" s="27" t="s">
+        <v>153</v>
+      </c>
+      <c r="C287" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="D287" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="E287" s="6">
+        <v>0</v>
+      </c>
+      <c r="F287" s="6">
+        <v>1.1185</v>
+      </c>
+      <c r="G287" s="6">
+        <v>1.125</v>
+      </c>
+      <c r="H287" s="5">
+        <v>1.0988</v>
+      </c>
+      <c r="I287" s="6">
+        <v>1.1017999999999999</v>
+      </c>
+    </row>
+    <row r="288" spans="1:9" x14ac:dyDescent="0.3">
       <c r="E288" s="6"/>
       <c r="F288" s="6"/>
       <c r="G288" s="6"/>

--- a/ASME B1.1 New.xlsx
+++ b/ASME B1.1 New.xlsx
@@ -15,7 +15,7 @@
     <sheet name="ASME B1.1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'ASME B1.1'!$A$1:$I$271</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'ASME B1.1'!$A$1:$I$287</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -1028,8 +1028,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T368"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A235" workbookViewId="0">
-      <selection activeCell="G271" sqref="G271"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2773,7 +2773,7 @@
         <v>0.27879999999999999</v>
       </c>
       <c r="I55" s="16">
-        <v>5.4999999999999997E-3</v>
+        <v>0.2843</v>
       </c>
       <c r="M55" s="7"/>
       <c r="N55" s="7"/>
@@ -2805,7 +2805,7 @@
         <v>0.28060000000000002</v>
       </c>
       <c r="I56" s="16">
-        <v>3.6600000000000001E-3</v>
+        <v>0.2843</v>
       </c>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
@@ -2844,7 +2844,7 @@
         <v>0.28270000000000001</v>
       </c>
       <c r="I57" s="16">
-        <v>2.7000000000000001E-3</v>
+        <v>0.28539999999999999</v>
       </c>
       <c r="K57" s="3"/>
       <c r="L57" s="3"/>
@@ -2883,7 +2883,7 @@
         <v>0.2848</v>
       </c>
       <c r="I58" s="16">
-        <v>3.4949999999999998E-3</v>
+        <v>0.2883</v>
       </c>
       <c r="M58" s="7"/>
       <c r="N58" s="7"/>
@@ -2915,7 +2915,7 @@
         <v>0.28670000000000001</v>
       </c>
       <c r="I59" s="16">
-        <v>2.5999999999999999E-3</v>
+        <v>0.2893</v>
       </c>
       <c r="M59" s="7"/>
       <c r="N59" s="7"/>
@@ -2947,7 +2947,7 @@
         <v>0.28789999999999999</v>
       </c>
       <c r="I60" s="16">
-        <v>3.3019999999999998E-3</v>
+        <v>0.29120000000000001</v>
       </c>
       <c r="O60" s="10"/>
     </row>
@@ -2977,7 +2977,7 @@
         <v>0.28970000000000001</v>
       </c>
       <c r="I61" s="16">
-        <v>2.5000000000000001E-3</v>
+        <v>0.29220000000000002</v>
       </c>
       <c r="O61" s="10"/>
     </row>
@@ -3007,7 +3007,7 @@
         <v>0.3266</v>
       </c>
       <c r="I62" s="16">
-        <v>6.4999999999999997E-3</v>
+        <v>0.33310000000000001</v>
       </c>
       <c r="O62" s="10"/>
     </row>
@@ -3037,7 +3037,7 @@
         <v>0.32869999999999999</v>
       </c>
       <c r="I63" s="16">
-        <v>4.3629999999999997E-3</v>
+        <v>0.33310000000000001</v>
       </c>
       <c r="O63" s="10"/>
     </row>
@@ -3067,7 +3067,7 @@
         <v>0.33110000000000001</v>
       </c>
       <c r="I64" s="16">
-        <v>3.3E-3</v>
+        <v>0.33439999999999998</v>
       </c>
       <c r="O64" s="10"/>
     </row>
@@ -3097,7 +3097,7 @@
         <v>0.3372</v>
       </c>
       <c r="I65" s="16">
-        <v>4.1240000000000001E-3</v>
+        <v>0.34129999999999999</v>
       </c>
       <c r="O65" s="10"/>
     </row>
@@ -3127,7 +3127,7 @@
         <v>0.33939999999999998</v>
       </c>
       <c r="I66" s="16">
-        <v>3.0999999999999999E-3</v>
+        <v>0.34250000000000003</v>
       </c>
       <c r="O66" s="10"/>
     </row>
@@ -3157,7 +3157,7 @@
         <v>0.34110000000000001</v>
       </c>
       <c r="I67" s="16">
-        <v>5.7000000000000002E-3</v>
+        <v>0.3468</v>
       </c>
       <c r="O67" s="10"/>
     </row>
@@ -3187,7 +3187,7 @@
         <v>0.34300000000000003</v>
       </c>
       <c r="I68" s="16">
-        <v>3.8040000000000001E-3</v>
+        <v>0.3468</v>
       </c>
       <c r="O68" s="10"/>
     </row>
@@ -3217,7 +3217,7 @@
         <v>0.34499999999999997</v>
       </c>
       <c r="I69" s="16">
-        <v>2.8999999999999998E-3</v>
+        <v>0.34789999999999999</v>
       </c>
       <c r="O69" s="10"/>
     </row>
@@ -3247,7 +3247,7 @@
         <v>0.34710000000000002</v>
       </c>
       <c r="I70" s="16">
-        <v>3.5590000000000001E-3</v>
+        <v>0.35070000000000001</v>
       </c>
       <c r="O70" s="10"/>
     </row>
@@ -3277,7 +3277,7 @@
         <v>0.34910000000000002</v>
       </c>
       <c r="I71" s="16">
-        <v>2.7000000000000001E-3</v>
+        <v>0.3518</v>
       </c>
       <c r="O71" s="10"/>
     </row>
@@ -3307,7 +3307,7 @@
         <v>0.3503</v>
       </c>
       <c r="I72" s="16">
-        <v>3.3660000000000001E-3</v>
+        <v>0.35370000000000001</v>
       </c>
       <c r="O72" s="10"/>
     </row>
@@ -3337,7 +3337,7 @@
         <v>0.35220000000000001</v>
       </c>
       <c r="I73" s="16">
-        <v>2.5000000000000001E-3</v>
+        <v>0.35470000000000002</v>
       </c>
       <c r="O73" s="10"/>
     </row>
@@ -3367,7 +3367,7 @@
         <v>0.3826</v>
       </c>
       <c r="I74" s="16">
-        <v>7.1000000000000004E-3</v>
+        <v>0.38969999999999999</v>
       </c>
       <c r="O74" s="10"/>
     </row>
@@ -3397,7 +3397,7 @@
         <v>0.38500000000000001</v>
       </c>
       <c r="I75" s="16">
-        <v>4.7130000000000002E-3</v>
+        <v>0.38969999999999999</v>
       </c>
       <c r="O75" s="10"/>
     </row>
@@ -3427,7 +3427,7 @@
         <v>0.3876</v>
       </c>
       <c r="I76" s="16">
-        <v>3.5000000000000001E-3</v>
+        <v>0.3911</v>
       </c>
       <c r="O76" s="10"/>
     </row>
@@ -3457,7 +3457,7 @@
         <v>0.39090000000000003</v>
       </c>
       <c r="I77" s="16">
-        <v>4.6259999999999999E-3</v>
+        <v>0.39550000000000002</v>
       </c>
       <c r="O77" s="10"/>
     </row>
@@ -3487,7 +3487,7 @@
         <v>0.39340000000000003</v>
       </c>
       <c r="I78" s="16">
-        <v>3.5000000000000001E-3</v>
+        <v>0.39689999999999998</v>
       </c>
       <c r="O78" s="10"/>
     </row>
@@ -3517,7 +3517,7 @@
         <v>0.39739999999999998</v>
       </c>
       <c r="I79" s="16">
-        <v>6.3E-3</v>
+        <v>0.4037</v>
       </c>
       <c r="O79" s="10"/>
     </row>
@@ -3547,7 +3547,7 @@
         <v>0.39950000000000002</v>
       </c>
       <c r="I80" s="16">
-        <v>4.1669999999999997E-3</v>
+        <v>0.4037</v>
       </c>
       <c r="O80" s="10"/>
     </row>
@@ -3577,7 +3577,7 @@
         <v>0.40189999999999998</v>
       </c>
       <c r="I81" s="16">
-        <v>3.0999999999999999E-3</v>
+        <v>0.40500000000000003</v>
       </c>
       <c r="O81" s="10"/>
     </row>
@@ -10340,6 +10340,7 @@
       <c r="I368" s="6"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:I287"/>
   <mergeCells count="1">
     <mergeCell ref="N33:N35"/>
   </mergeCells>

--- a/ASME B1.1 New.xlsx
+++ b/ASME B1.1 New.xlsx
@@ -15,7 +15,7 @@
     <sheet name="ASME B1.1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'ASME B1.1'!$A$1:$I$287</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'ASME B1.1'!$A$1:$I$293</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1156" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1180" uniqueCount="156">
   <si>
     <t>Designation</t>
   </si>
@@ -404,9 +404,6 @@
     <t>UNS</t>
   </si>
   <si>
-    <t>1-17</t>
-  </si>
-  <si>
     <t>1-1/2-6</t>
   </si>
   <si>
@@ -534,6 +531,15 @@
   </si>
   <si>
     <t>1-1/8-28</t>
+  </si>
+  <si>
+    <t>15/16-20</t>
+  </si>
+  <si>
+    <t>15/16-28</t>
+  </si>
+  <si>
+    <t>15/16-32</t>
   </si>
 </sst>
 </file>
@@ -659,7 +665,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -738,6 +744,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1028,8 +1037,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T368"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1050,7 +1059,7 @@
         <v>77</v>
       </c>
       <c r="B1" s="26" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C1" s="26" t="s">
         <v>0</v>
@@ -1062,16 +1071,16 @@
         <v>2</v>
       </c>
       <c r="F1" s="26" t="s">
+        <v>141</v>
+      </c>
+      <c r="G1" s="26" t="s">
         <v>142</v>
       </c>
-      <c r="G1" s="26" t="s">
+      <c r="H1" s="26" t="s">
         <v>143</v>
       </c>
-      <c r="H1" s="26" t="s">
+      <c r="I1" s="26" t="s">
         <v>144</v>
-      </c>
-      <c r="I1" s="26" t="s">
-        <v>145</v>
       </c>
       <c r="K1" s="9"/>
     </row>
@@ -1371,10 +1380,10 @@
         <v>8.5999999999999993E-2</v>
       </c>
       <c r="H11" s="6">
-        <v>7.2800000000000004E-2</v>
+        <v>7.4399999999999994E-2</v>
       </c>
       <c r="I11" s="6">
-        <v>7.4399999999999994E-2</v>
+        <v>7.5899999999999995E-2</v>
       </c>
       <c r="N11" s="7"/>
       <c r="O11" s="7"/>
@@ -2072,7 +2081,7 @@
       <c r="I33" s="5">
         <v>0.16289999999999999</v>
       </c>
-      <c r="N33" s="28"/>
+      <c r="N33" s="29"/>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A34" s="25" t="s">
@@ -2102,7 +2111,7 @@
       <c r="I34" s="5">
         <v>0.16880000000000001</v>
       </c>
-      <c r="N34" s="29"/>
+      <c r="N34" s="30"/>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A35" s="25" t="s">
@@ -2132,7 +2141,7 @@
       <c r="I35" s="5">
         <v>0.16969999999999999</v>
       </c>
-      <c r="N35" s="29"/>
+      <c r="N35" s="30"/>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A36" s="25" t="s">
@@ -7021,8 +7030,8 @@
       <c r="A197" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="B197" s="24" t="s">
-        <v>110</v>
+      <c r="B197" s="28" t="s">
+        <v>105</v>
       </c>
       <c r="C197" s="25" t="s">
         <v>34</v>
@@ -7255,7 +7264,7 @@
         <v>3</v>
       </c>
       <c r="B204" s="24" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C204" s="25" t="s">
         <v>20</v>
@@ -7284,7 +7293,7 @@
         <v>3</v>
       </c>
       <c r="B205" s="24" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C205" s="25" t="s">
         <v>20</v>
@@ -7313,7 +7322,7 @@
         <v>3</v>
       </c>
       <c r="B206" s="24" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C206" s="25" t="s">
         <v>20</v>
@@ -7342,7 +7351,7 @@
         <v>3</v>
       </c>
       <c r="B207" s="24" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C207" s="25" t="s">
         <v>34</v>
@@ -7371,7 +7380,7 @@
         <v>3</v>
       </c>
       <c r="B208" s="24" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C208" s="25" t="s">
         <v>34</v>
@@ -7400,7 +7409,7 @@
         <v>3</v>
       </c>
       <c r="B209" s="24" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C209" s="25" t="s">
         <v>19</v>
@@ -7429,7 +7438,7 @@
         <v>3</v>
       </c>
       <c r="B210" s="24" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C210" s="25" t="s">
         <v>19</v>
@@ -7458,7 +7467,7 @@
         <v>3</v>
       </c>
       <c r="B211" s="24" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C211" s="25" t="s">
         <v>19</v>
@@ -7487,7 +7496,7 @@
         <v>3</v>
       </c>
       <c r="B212" s="24" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C212" s="25" t="s">
         <v>34</v>
@@ -7516,7 +7525,7 @@
         <v>3</v>
       </c>
       <c r="B213" s="24" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C213" s="25" t="s">
         <v>34</v>
@@ -7545,7 +7554,7 @@
         <v>3</v>
       </c>
       <c r="B214" s="24" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C214" s="25" t="s">
         <v>33</v>
@@ -7574,7 +7583,7 @@
         <v>3</v>
       </c>
       <c r="B215" s="24" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C215" s="25" t="s">
         <v>33</v>
@@ -7603,7 +7612,7 @@
         <v>3</v>
       </c>
       <c r="B216" s="24" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C216" s="25" t="s">
         <v>34</v>
@@ -7632,7 +7641,7 @@
         <v>3</v>
       </c>
       <c r="B217" s="24" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C217" s="25" t="s">
         <v>34</v>
@@ -7661,7 +7670,7 @@
         <v>3</v>
       </c>
       <c r="B218" s="24" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C218" s="25" t="s">
         <v>34</v>
@@ -7690,7 +7699,7 @@
         <v>3</v>
       </c>
       <c r="B219" s="24" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C219" s="25" t="s">
         <v>34</v>
@@ -7719,7 +7728,7 @@
         <v>3</v>
       </c>
       <c r="B220" s="24" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C220" s="25" t="s">
         <v>20</v>
@@ -7748,7 +7757,7 @@
         <v>3</v>
       </c>
       <c r="B221" s="24" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C221" s="25" t="s">
         <v>20</v>
@@ -7787,7 +7796,7 @@
         <v>3</v>
       </c>
       <c r="B222" s="24" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C222" s="25" t="s">
         <v>20</v>
@@ -7816,7 +7825,7 @@
         <v>3</v>
       </c>
       <c r="B223" s="24" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C223" s="25" t="s">
         <v>34</v>
@@ -7845,7 +7854,7 @@
         <v>3</v>
       </c>
       <c r="B224" s="24" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C224" s="25" t="s">
         <v>34</v>
@@ -7874,7 +7883,7 @@
         <v>3</v>
       </c>
       <c r="B225" s="24" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C225" s="25" t="s">
         <v>34</v>
@@ -7903,7 +7912,7 @@
         <v>3</v>
       </c>
       <c r="B226" s="24" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C226" s="25" t="s">
         <v>34</v>
@@ -7932,7 +7941,7 @@
         <v>3</v>
       </c>
       <c r="B227" s="24" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C227" s="25" t="s">
         <v>34</v>
@@ -7961,7 +7970,7 @@
         <v>3</v>
       </c>
       <c r="B228" s="24" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C228" s="25" t="s">
         <v>34</v>
@@ -7990,7 +7999,7 @@
         <v>3</v>
       </c>
       <c r="B229" s="24" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C229" s="25" t="s">
         <v>34</v>
@@ -8019,7 +8028,7 @@
         <v>3</v>
       </c>
       <c r="B230" s="24" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C230" s="25" t="s">
         <v>34</v>
@@ -8048,7 +8057,7 @@
         <v>3</v>
       </c>
       <c r="B231" s="24" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C231" s="25" t="s">
         <v>34</v>
@@ -8077,7 +8086,7 @@
         <v>3</v>
       </c>
       <c r="B232" s="24" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C232" s="25" t="s">
         <v>34</v>
@@ -8105,8 +8114,8 @@
       <c r="A233" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="B233" s="24" t="s">
-        <v>124</v>
+      <c r="B233" s="28" t="s">
+        <v>123</v>
       </c>
       <c r="C233" s="25" t="s">
         <v>20</v>
@@ -8121,13 +8130,13 @@
         <v>2.2141000000000002</v>
       </c>
       <c r="G233" s="5">
+        <v>2.2471000000000001</v>
+      </c>
+      <c r="H233" s="5">
         <v>2.0882000000000001</v>
       </c>
-      <c r="H233" s="5">
+      <c r="I233" s="5">
         <v>2.1027999999999998</v>
-      </c>
-      <c r="I233" s="5">
-        <v>2.0882000000000001</v>
       </c>
       <c r="T233"/>
     </row>
@@ -8136,7 +8145,7 @@
         <v>3</v>
       </c>
       <c r="B234" s="24" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C234" s="25" t="s">
         <v>20</v>
@@ -8151,13 +8160,13 @@
         <v>2.2250999999999999</v>
       </c>
       <c r="G234" s="5">
+        <v>2.2471000000000001</v>
+      </c>
+      <c r="H234" s="5">
         <v>2.0931000000000002</v>
       </c>
-      <c r="H234" s="5">
+      <c r="I234" s="5">
         <v>2.1027999999999998</v>
-      </c>
-      <c r="I234" s="5">
-        <v>2.0931000000000002</v>
       </c>
       <c r="K234" s="3"/>
       <c r="L234" s="3"/>
@@ -8175,7 +8184,7 @@
         <v>3</v>
       </c>
       <c r="B235" s="24" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C235" s="25" t="s">
         <v>20</v>
@@ -8190,13 +8199,13 @@
         <v>2.2280000000000002</v>
       </c>
       <c r="G235" s="5">
+        <v>2.25</v>
+      </c>
+      <c r="H235" s="5">
         <v>2.0983999999999998</v>
       </c>
-      <c r="H235" s="5">
+      <c r="I235" s="5">
         <v>2.1057000000000001</v>
-      </c>
-      <c r="I235" s="5">
-        <v>2.0983999999999998</v>
       </c>
       <c r="T235"/>
     </row>
@@ -8205,7 +8214,7 @@
         <v>3</v>
       </c>
       <c r="B236" s="25" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C236" s="25" t="s">
         <v>34</v>
@@ -8220,13 +8229,13 @@
         <v>2.2292000000000001</v>
       </c>
       <c r="G236" s="5">
+        <v>2.2473999999999998</v>
+      </c>
+      <c r="H236" s="5">
         <v>2.1303000000000001</v>
       </c>
-      <c r="H236" s="5">
+      <c r="I236" s="5">
         <v>2.1391</v>
-      </c>
-      <c r="I236" s="5">
-        <v>2.1303000000000001</v>
       </c>
       <c r="T236"/>
     </row>
@@ -8235,7 +8244,7 @@
         <v>3</v>
       </c>
       <c r="B237" s="25" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C237" s="25" t="s">
         <v>34</v>
@@ -8250,13 +8259,13 @@
         <v>2.2317999999999998</v>
       </c>
       <c r="G237" s="5">
+        <v>2.25</v>
+      </c>
+      <c r="H237" s="5">
         <v>2.1351</v>
       </c>
-      <c r="H237" s="5">
+      <c r="I237" s="5">
         <v>2.1417000000000002</v>
-      </c>
-      <c r="I237" s="5">
-        <v>2.1351</v>
       </c>
       <c r="T237"/>
     </row>
@@ -8265,7 +8274,7 @@
         <v>3</v>
       </c>
       <c r="B238" s="25" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C238" s="25" t="s">
         <v>34</v>
@@ -8280,13 +8289,13 @@
         <v>2.2326000000000001</v>
       </c>
       <c r="G238" s="5">
+        <v>2.2475999999999998</v>
+      </c>
+      <c r="H238" s="5">
         <v>2.1583999999999999</v>
       </c>
-      <c r="H238" s="5">
+      <c r="I238" s="5">
         <v>2.1663999999999999</v>
-      </c>
-      <c r="I238" s="5">
-        <v>2.1583999999999999</v>
       </c>
       <c r="T238"/>
     </row>
@@ -8295,7 +8304,7 @@
         <v>3</v>
       </c>
       <c r="B239" s="25" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C239" s="25" t="s">
         <v>34</v>
@@ -8310,13 +8319,13 @@
         <v>2.2349999999999999</v>
       </c>
       <c r="G239" s="5">
+        <v>2.25</v>
+      </c>
+      <c r="H239" s="5">
         <v>2.1627999999999998</v>
       </c>
-      <c r="H239" s="5">
+      <c r="I239" s="5">
         <v>2.1688000000000001</v>
-      </c>
-      <c r="I239" s="5">
-        <v>2.1627999999999998</v>
       </c>
       <c r="T239"/>
     </row>
@@ -8325,7 +8334,7 @@
         <v>3</v>
       </c>
       <c r="B240" s="25" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C240" s="25" t="s">
         <v>34</v>
@@ -8354,7 +8363,7 @@
         <v>3</v>
       </c>
       <c r="B241" s="25" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C241" s="25" t="s">
         <v>34</v>
@@ -8383,7 +8392,7 @@
         <v>3</v>
       </c>
       <c r="B242" s="25" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C242" s="25" t="s">
         <v>34</v>
@@ -8412,7 +8421,7 @@
         <v>3</v>
       </c>
       <c r="B243" s="25" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C243" s="25" t="s">
         <v>34</v>
@@ -8430,7 +8439,7 @@
         <v>2.25</v>
       </c>
       <c r="H243" s="5">
-        <v>1.9440999999999999</v>
+        <v>2.2052999999999998</v>
       </c>
       <c r="I243" s="5">
         <v>2.2094</v>
@@ -8441,7 +8450,7 @@
         <v>3</v>
       </c>
       <c r="B244" s="25" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C244" s="25" t="s">
         <v>34</v>
@@ -8470,7 +8479,7 @@
         <v>3</v>
       </c>
       <c r="B245" s="25" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C245" s="25" t="s">
         <v>34</v>
@@ -8499,7 +8508,7 @@
         <v>3</v>
       </c>
       <c r="B246" s="24" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C246" s="25" t="s">
         <v>20</v>
@@ -8528,7 +8537,7 @@
         <v>3</v>
       </c>
       <c r="B247" s="24" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C247" s="25" t="s">
         <v>20</v>
@@ -8557,7 +8566,7 @@
         <v>3</v>
       </c>
       <c r="B248" s="24" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C248" s="25" t="s">
         <v>20</v>
@@ -8586,7 +8595,7 @@
         <v>3</v>
       </c>
       <c r="B249" s="25" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C249" s="25" t="s">
         <v>34</v>
@@ -8615,7 +8624,7 @@
         <v>3</v>
       </c>
       <c r="B250" s="25" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C250" s="25" t="s">
         <v>34</v>
@@ -8644,7 +8653,7 @@
         <v>3</v>
       </c>
       <c r="B251" s="25" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C251" s="25" t="s">
         <v>34</v>
@@ -8673,7 +8682,7 @@
         <v>3</v>
       </c>
       <c r="B252" s="25" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C252" s="25" t="s">
         <v>34</v>
@@ -8702,7 +8711,7 @@
         <v>3</v>
       </c>
       <c r="B253" s="25" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C253" s="25" t="s">
         <v>34</v>
@@ -8731,7 +8740,7 @@
         <v>3</v>
       </c>
       <c r="B254" s="25" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C254" s="25" t="s">
         <v>34</v>
@@ -8760,7 +8769,7 @@
         <v>3</v>
       </c>
       <c r="B255" s="25" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C255" s="25" t="s">
         <v>34</v>
@@ -8789,7 +8798,7 @@
         <v>3</v>
       </c>
       <c r="B256" s="25" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C256" s="25" t="s">
         <v>34</v>
@@ -8818,7 +8827,7 @@
         <v>3</v>
       </c>
       <c r="B257" s="25" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C257" s="25" t="s">
         <v>34</v>
@@ -8847,7 +8856,7 @@
         <v>3</v>
       </c>
       <c r="B258" s="25" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C258" s="25" t="s">
         <v>34</v>
@@ -8876,7 +8885,7 @@
         <v>3</v>
       </c>
       <c r="B259" s="24" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C259" s="25" t="s">
         <v>20</v>
@@ -8905,7 +8914,7 @@
         <v>3</v>
       </c>
       <c r="B260" s="24" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C260" s="25" t="s">
         <v>20</v>
@@ -8944,7 +8953,7 @@
         <v>3</v>
       </c>
       <c r="B261" s="24" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C261" s="25" t="s">
         <v>20</v>
@@ -8983,7 +8992,7 @@
         <v>3</v>
       </c>
       <c r="B262" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C262" s="25" t="s">
         <v>34</v>
@@ -9012,7 +9021,7 @@
         <v>3</v>
       </c>
       <c r="B263" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C263" s="25" t="s">
         <v>34</v>
@@ -9051,7 +9060,7 @@
         <v>3</v>
       </c>
       <c r="B264" s="24" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C264" s="25" t="s">
         <v>34</v>
@@ -9080,7 +9089,7 @@
         <v>3</v>
       </c>
       <c r="B265" s="24" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C265" s="25" t="s">
         <v>34</v>
@@ -9119,7 +9128,7 @@
         <v>3</v>
       </c>
       <c r="B266" s="24" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C266" s="25" t="s">
         <v>34</v>
@@ -9148,7 +9157,7 @@
         <v>3</v>
       </c>
       <c r="B267" s="24" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C267" s="25" t="s">
         <v>34</v>
@@ -9187,7 +9196,7 @@
         <v>3</v>
       </c>
       <c r="B268" s="24" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C268" s="25" t="s">
         <v>34</v>
@@ -9216,7 +9225,7 @@
         <v>3</v>
       </c>
       <c r="B269" s="24" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C269" s="25" t="s">
         <v>34</v>
@@ -9255,7 +9264,7 @@
         <v>3</v>
       </c>
       <c r="B270" s="24" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C270" s="25" t="s">
         <v>34</v>
@@ -9284,7 +9293,7 @@
         <v>3</v>
       </c>
       <c r="B271" s="24" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C271" s="25" t="s">
         <v>34</v>
@@ -9313,7 +9322,7 @@
         <v>3</v>
       </c>
       <c r="B272" s="25" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C272" s="25" t="s">
         <v>20</v>
@@ -9342,7 +9351,7 @@
         <v>3</v>
       </c>
       <c r="B273" s="27" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C273" s="27" t="s">
         <v>20</v>
@@ -9371,7 +9380,7 @@
         <v>3</v>
       </c>
       <c r="B274" s="27" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C274" s="27" t="s">
         <v>20</v>
@@ -9400,7 +9409,7 @@
         <v>3</v>
       </c>
       <c r="B275" s="25" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C275" s="25" t="s">
         <v>34</v>
@@ -9429,7 +9438,7 @@
         <v>3</v>
       </c>
       <c r="B276" s="27" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C276" s="25" t="s">
         <v>34</v>
@@ -9458,7 +9467,7 @@
         <v>3</v>
       </c>
       <c r="B277" s="27" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C277" s="25" t="s">
         <v>19</v>
@@ -9487,7 +9496,7 @@
         <v>3</v>
       </c>
       <c r="B278" s="27" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C278" s="25" t="s">
         <v>19</v>
@@ -9516,7 +9525,7 @@
         <v>3</v>
       </c>
       <c r="B279" s="25" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C279" s="25" t="s">
         <v>19</v>
@@ -9545,7 +9554,7 @@
         <v>3</v>
       </c>
       <c r="B280" s="25" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C280" s="25" t="s">
         <v>34</v>
@@ -9574,7 +9583,7 @@
         <v>3</v>
       </c>
       <c r="B281" s="27" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C281" s="27" t="s">
         <v>34</v>
@@ -9603,7 +9612,7 @@
         <v>3</v>
       </c>
       <c r="B282" s="25" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C282" s="25" t="s">
         <v>33</v>
@@ -9632,7 +9641,7 @@
         <v>3</v>
       </c>
       <c r="B283" s="27" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C283" s="25" t="s">
         <v>33</v>
@@ -9661,7 +9670,7 @@
         <v>3</v>
       </c>
       <c r="B284" s="25" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C284" s="25" t="s">
         <v>34</v>
@@ -9690,7 +9699,7 @@
         <v>3</v>
       </c>
       <c r="B285" s="27" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C285" s="25" t="s">
         <v>34</v>
@@ -9719,7 +9728,7 @@
         <v>3</v>
       </c>
       <c r="B286" s="25" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C286" s="25" t="s">
         <v>34</v>
@@ -9748,7 +9757,7 @@
         <v>3</v>
       </c>
       <c r="B287" s="27" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C287" s="25" t="s">
         <v>34</v>
@@ -9773,118 +9782,250 @@
       </c>
     </row>
     <row r="288" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="E288" s="6"/>
-      <c r="F288" s="6"/>
-      <c r="G288" s="6"/>
-      <c r="H288" s="6"/>
-      <c r="I288" s="6"/>
-    </row>
-    <row r="289" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E289" s="6"/>
-      <c r="F289" s="6"/>
-      <c r="G289" s="6"/>
-      <c r="H289" s="6"/>
-      <c r="I289" s="6"/>
-    </row>
-    <row r="290" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E290" s="6"/>
-      <c r="F290" s="6"/>
-      <c r="G290" s="6"/>
-      <c r="H290" s="6"/>
-      <c r="I290" s="6"/>
-    </row>
-    <row r="291" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E291" s="6"/>
-      <c r="F291" s="6"/>
-      <c r="G291" s="6"/>
-      <c r="H291" s="6"/>
-      <c r="I291" s="6"/>
-    </row>
-    <row r="292" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E292" s="6"/>
-      <c r="F292" s="6"/>
-      <c r="G292" s="6"/>
-      <c r="H292" s="6"/>
-      <c r="I292" s="6"/>
-    </row>
-    <row r="293" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E293" s="6"/>
-      <c r="F293" s="6"/>
-      <c r="G293" s="6"/>
-      <c r="H293" s="6"/>
-      <c r="I293" s="6"/>
-    </row>
-    <row r="294" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="A288" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="B288" s="25" t="s">
+        <v>153</v>
+      </c>
+      <c r="C288" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="D288" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="E288" s="6">
+        <v>1.4E-3</v>
+      </c>
+      <c r="F288" s="6">
+        <v>0.92800000000000005</v>
+      </c>
+      <c r="G288" s="6">
+        <v>0.93159999999999998</v>
+      </c>
+      <c r="H288" s="6">
+        <v>0.89910000000000001</v>
+      </c>
+      <c r="I288" s="6">
+        <v>0.90359999999999996</v>
+      </c>
+    </row>
+    <row r="289" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A289" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="B289" s="25" t="s">
+        <v>153</v>
+      </c>
+      <c r="C289" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="D289" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="E289" s="6">
+        <v>0</v>
+      </c>
+      <c r="F289" s="6">
+        <v>0.9294</v>
+      </c>
+      <c r="G289" s="6">
+        <v>0.9375</v>
+      </c>
+      <c r="H289" s="6">
+        <v>0.90159999999999996</v>
+      </c>
+      <c r="I289" s="6">
+        <v>0.90500000000000003</v>
+      </c>
+    </row>
+    <row r="290" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A290" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="B290" s="25" t="s">
+        <v>154</v>
+      </c>
+      <c r="C290" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="D290" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="E290" s="6">
+        <v>1.1999999999999999E-3</v>
+      </c>
+      <c r="F290" s="6">
+        <v>0.92979999999999996</v>
+      </c>
+      <c r="G290" s="6">
+        <v>0.93630000000000002</v>
+      </c>
+      <c r="H290" s="6">
+        <v>0.90920000000000001</v>
+      </c>
+      <c r="I290" s="6">
+        <v>0.91310000000000002</v>
+      </c>
+    </row>
+    <row r="291" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A291" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="B291" s="25" t="s">
+        <v>154</v>
+      </c>
+      <c r="C291" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="D291" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="E291" s="6">
+        <v>0</v>
+      </c>
+      <c r="F291" s="6">
+        <v>0.93100000000000005</v>
+      </c>
+      <c r="G291" s="6">
+        <v>0.9375</v>
+      </c>
+      <c r="H291" s="6">
+        <v>0.9113</v>
+      </c>
+      <c r="I291" s="6">
+        <v>0.9143</v>
+      </c>
+    </row>
+    <row r="292" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A292" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="B292" s="25" t="s">
+        <v>155</v>
+      </c>
+      <c r="C292" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="D292" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="E292" s="6">
+        <v>1.1000000000000001E-3</v>
+      </c>
+      <c r="F292" s="6">
+        <v>0.9304</v>
+      </c>
+      <c r="G292" s="6">
+        <v>0.93640000000000001</v>
+      </c>
+      <c r="H292" s="6">
+        <v>0.9123</v>
+      </c>
+      <c r="I292" s="6">
+        <v>0.91610000000000003</v>
+      </c>
+    </row>
+    <row r="293" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A293" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="B293" s="25" t="s">
+        <v>155</v>
+      </c>
+      <c r="C293" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="D293" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="E293" s="6">
+        <v>0</v>
+      </c>
+      <c r="F293" s="6">
+        <v>0.93149999999999999</v>
+      </c>
+      <c r="G293" s="6">
+        <v>0.9375</v>
+      </c>
+      <c r="H293" s="6">
+        <v>0.91439999999999999</v>
+      </c>
+      <c r="I293" s="6">
+        <v>0.91720000000000002</v>
+      </c>
+    </row>
+    <row r="294" spans="1:9" x14ac:dyDescent="0.3">
       <c r="E294" s="6"/>
       <c r="F294" s="6"/>
       <c r="G294" s="6"/>
       <c r="H294" s="6"/>
       <c r="I294" s="6"/>
     </row>
-    <row r="295" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:9" x14ac:dyDescent="0.3">
       <c r="E295" s="6"/>
       <c r="F295" s="6"/>
       <c r="G295" s="6"/>
       <c r="H295" s="6"/>
       <c r="I295" s="6"/>
     </row>
-    <row r="296" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:9" x14ac:dyDescent="0.3">
       <c r="E296" s="6"/>
       <c r="F296" s="6"/>
       <c r="G296" s="6"/>
       <c r="H296" s="6"/>
       <c r="I296" s="6"/>
     </row>
-    <row r="297" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:9" x14ac:dyDescent="0.3">
       <c r="E297" s="6"/>
       <c r="F297" s="6"/>
       <c r="G297" s="6"/>
       <c r="H297" s="6"/>
       <c r="I297" s="6"/>
     </row>
-    <row r="298" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:9" x14ac:dyDescent="0.3">
       <c r="E298" s="6"/>
       <c r="F298" s="6"/>
       <c r="G298" s="6"/>
       <c r="H298" s="6"/>
       <c r="I298" s="6"/>
     </row>
-    <row r="299" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:9" x14ac:dyDescent="0.3">
       <c r="E299" s="6"/>
       <c r="F299" s="6"/>
       <c r="G299" s="6"/>
       <c r="H299" s="6"/>
       <c r="I299" s="6"/>
     </row>
-    <row r="300" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:9" x14ac:dyDescent="0.3">
       <c r="E300" s="6"/>
       <c r="F300" s="6"/>
       <c r="G300" s="6"/>
       <c r="H300" s="6"/>
       <c r="I300" s="6"/>
     </row>
-    <row r="301" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:9" x14ac:dyDescent="0.3">
       <c r="E301" s="6"/>
       <c r="F301" s="6"/>
       <c r="G301" s="6"/>
       <c r="H301" s="6"/>
       <c r="I301" s="6"/>
     </row>
-    <row r="302" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:9" x14ac:dyDescent="0.3">
       <c r="E302" s="6"/>
       <c r="F302" s="6"/>
       <c r="G302" s="6"/>
       <c r="H302" s="6"/>
       <c r="I302" s="6"/>
     </row>
-    <row r="303" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:9" x14ac:dyDescent="0.3">
       <c r="E303" s="6"/>
       <c r="F303" s="6"/>
       <c r="G303" s="6"/>
       <c r="H303" s="6"/>
       <c r="I303" s="6"/>
     </row>
-    <row r="304" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:9" x14ac:dyDescent="0.3">
       <c r="E304" s="6"/>
       <c r="F304" s="6"/>
       <c r="G304" s="6"/>
@@ -10340,14 +10481,14 @@
       <c r="I368" s="6"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I287"/>
+  <autoFilter ref="A1:I293"/>
   <mergeCells count="1">
     <mergeCell ref="N33:N35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="B4 B231 B186 B130 B121 B117 B96 B94 B91 B89 B70 B65 B53 B48 B45 B42 B40 B38 B36 B34 B32 B30 B268 B270 B229 B194:B203 B184 B182 B180 B178 B176 B173 B171 B168 B156 B154 B152 B149 B147 B144 B126 B128 B119 B124 B114 B86 B72 B67 B62 B50 B28 B26 B24 B22 B20 B18 B16 B14 B12 B10 B8 B6 B5 B7 B9 B11 B13 B15 B17 B19 B21 B23 B25 B27 B29 B51:B52 B63:B64 B68:B69 B73:B85 B87:B88 B115:B116 B125 B120 B129 B127 B145:B146 B148 B150:B151 B153 B155 B157:B167 B169:B170 B172 B174:B175 B177 B179 B181 B183 B185 B204:B228 B230 B271 B269 B31 B33 B35 B37 B39 B41 B43:B44 B46:B47 B49 B54:B61 B66 B71 B90 B92:B93 B95 B97:B113 B118 B122:B123 B131:B143 B187:B193 B232:B267" twoDigitTextYear="1"/>
+    <ignoredError sqref="B4 B231 B186 B130 B121 B117 B96 B94 B91 B89 B70 B65 B53 B48 B45 B42 B40 B38 B36 B34 B32 B30 B268 B270 B229 B194:B196 B184 B182 B180 B178 B176 B173 B171 B168 B156 B154 B152 B149 B147 B144 B126 B128 B119 B124 B114 B86 B72 B67 B62 B50 B28 B26 B24 B22 B20 B18 B16 B14 B12 B10 B8 B6 B5 B7 B9 B11 B13 B15 B17 B19 B21 B23 B25 B27 B29 B51:B52 B63:B64 B68:B69 B73:B85 B87:B88 B115:B116 B125 B120 B129 B127 B145:B146 B148 B150:B151 B153 B155 B157:B167 B169:B170 B172 B174:B175 B177 B179 B181 B183 B185 B204:B228 B230 B271 B269 B31 B33 B35 B37 B39 B41 B43:B44 B46:B47 B49 B54:B61 B66 B71 B90 B92:B93 B95 B97:B113 B118 B122:B123 B131:B143 B187:B193 B232 B234:B267 B198:B203" twoDigitTextYear="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/ASME B1.1 New.xlsx
+++ b/ASME B1.1 New.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1180" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1179" uniqueCount="155">
   <si>
     <t>Designation</t>
   </si>
@@ -291,18 +291,6 @@
   </si>
   <si>
     <t>5/8-32</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="63"/>
-        <rFont val="Calibri Light"/>
-        <family val="2"/>
-        <scheme val="major"/>
-      </rPr>
-      <t>0.5 588</t>
-    </r>
   </si>
   <si>
     <t>Series</t>
@@ -1035,10 +1023,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:T368"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F302" sqref="F302"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1056,10 +1045,10 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="26" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B1" s="26" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C1" s="26" t="s">
         <v>0</v>
@@ -1071,20 +1060,20 @@
         <v>2</v>
       </c>
       <c r="F1" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="G1" s="26" t="s">
         <v>141</v>
       </c>
-      <c r="G1" s="26" t="s">
+      <c r="H1" s="26" t="s">
         <v>142</v>
       </c>
-      <c r="H1" s="26" t="s">
+      <c r="I1" s="26" t="s">
         <v>143</v>
       </c>
-      <c r="I1" s="26" t="s">
-        <v>144</v>
-      </c>
       <c r="K1" s="9"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" s="25" t="s">
         <v>3</v>
       </c>
@@ -1113,7 +1102,7 @@
         <v>5.1400000000000001E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" s="25" t="s">
         <v>3</v>
       </c>
@@ -1142,7 +1131,7 @@
         <v>5.1900000000000002E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" s="25" t="s">
         <v>3</v>
       </c>
@@ -1171,7 +1160,7 @@
         <v>6.2300000000000001E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" s="25" t="s">
         <v>3</v>
       </c>
@@ -1200,7 +1189,7 @@
         <v>6.2899999999999998E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" s="25" t="s">
         <v>3</v>
       </c>
@@ -1229,7 +1218,7 @@
         <v>6.3399999999999998E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" s="25" t="s">
         <v>3</v>
       </c>
@@ -1261,7 +1250,7 @@
       <c r="O7" s="7"/>
       <c r="P7" s="7"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" s="25" t="s">
         <v>3</v>
       </c>
@@ -1293,7 +1282,7 @@
       <c r="O8" s="7"/>
       <c r="P8" s="7"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" s="25" t="s">
         <v>3</v>
       </c>
@@ -1325,7 +1314,7 @@
       <c r="O9" s="7"/>
       <c r="P9" s="7"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" s="25" t="s">
         <v>3</v>
       </c>
@@ -1357,7 +1346,7 @@
       <c r="O10" s="7"/>
       <c r="P10" s="7"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" s="25" t="s">
         <v>3</v>
       </c>
@@ -1389,7 +1378,7 @@
       <c r="O11" s="7"/>
       <c r="P11" s="7"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" s="25" t="s">
         <v>3</v>
       </c>
@@ -1421,7 +1410,7 @@
       <c r="O12" s="7"/>
       <c r="P12" s="7"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" s="25" t="s">
         <v>3</v>
       </c>
@@ -1453,7 +1442,7 @@
       <c r="O13" s="7"/>
       <c r="P13" s="7"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" s="25" t="s">
         <v>3</v>
       </c>
@@ -1485,7 +1474,7 @@
       <c r="O14" s="7"/>
       <c r="P14" s="7"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" s="25" t="s">
         <v>3</v>
       </c>
@@ -1517,7 +1506,7 @@
       <c r="O15" s="7"/>
       <c r="P15" s="7"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" s="25" t="s">
         <v>3</v>
       </c>
@@ -1549,7 +1538,7 @@
       <c r="O16" s="7"/>
       <c r="P16" s="7"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" s="25" t="s">
         <v>3</v>
       </c>
@@ -1581,7 +1570,7 @@
       <c r="O17" s="7"/>
       <c r="P17" s="7"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" s="25" t="s">
         <v>3</v>
       </c>
@@ -1613,7 +1602,7 @@
       <c r="O18" s="7"/>
       <c r="P18" s="7"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" s="25" t="s">
         <v>3</v>
       </c>
@@ -1645,7 +1634,7 @@
       <c r="O19" s="7"/>
       <c r="P19" s="7"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" s="25" t="s">
         <v>3</v>
       </c>
@@ -1677,7 +1666,7 @@
       <c r="O20" s="7"/>
       <c r="P20" s="7"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" s="25" t="s">
         <v>3</v>
       </c>
@@ -1709,7 +1698,7 @@
       <c r="O21" s="7"/>
       <c r="P21" s="7"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" s="25" t="s">
         <v>3</v>
       </c>
@@ -1741,7 +1730,7 @@
       <c r="O22" s="7"/>
       <c r="P22" s="7"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" s="25" t="s">
         <v>3</v>
       </c>
@@ -1773,7 +1762,7 @@
       <c r="O23" s="7"/>
       <c r="P23" s="7"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" s="25" t="s">
         <v>3</v>
       </c>
@@ -1805,7 +1794,7 @@
       <c r="O24" s="7"/>
       <c r="P24" s="7"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" s="25" t="s">
         <v>3</v>
       </c>
@@ -1837,7 +1826,7 @@
       <c r="O25" s="7"/>
       <c r="P25" s="7"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" s="25" t="s">
         <v>3</v>
       </c>
@@ -1869,7 +1858,7 @@
       <c r="O26" s="7"/>
       <c r="P26" s="7"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" s="25" t="s">
         <v>3</v>
       </c>
@@ -1901,7 +1890,7 @@
       <c r="O27" s="7"/>
       <c r="P27" s="7"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" s="25" t="s">
         <v>3</v>
       </c>
@@ -1933,7 +1922,7 @@
       <c r="O28" s="7"/>
       <c r="P28" s="7"/>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" s="25" t="s">
         <v>3</v>
       </c>
@@ -1965,7 +1954,7 @@
       <c r="O29" s="7"/>
       <c r="P29" s="7"/>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" s="25" t="s">
         <v>3</v>
       </c>
@@ -1995,7 +1984,7 @@
       </c>
       <c r="N30" s="4"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" s="25" t="s">
         <v>3</v>
       </c>
@@ -2024,7 +2013,7 @@
         <v>0.14599999999999999</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" s="25" t="s">
         <v>3</v>
       </c>
@@ -2053,7 +2042,7 @@
         <v>0.16189999999999999</v>
       </c>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" s="25" t="s">
         <v>3</v>
       </c>
@@ -2083,7 +2072,7 @@
       </c>
       <c r="N33" s="29"/>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" s="25" t="s">
         <v>3</v>
       </c>
@@ -2113,7 +2102,7 @@
       </c>
       <c r="N34" s="30"/>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" s="25" t="s">
         <v>3</v>
       </c>
@@ -2143,7 +2132,7 @@
       </c>
       <c r="N35" s="30"/>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" s="25" t="s">
         <v>3</v>
       </c>
@@ -2172,7 +2161,7 @@
         <v>0.18790000000000001</v>
       </c>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" s="25" t="s">
         <v>3</v>
       </c>
@@ -2201,7 +2190,7 @@
         <v>0.18890000000000001</v>
       </c>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" s="25" t="s">
         <v>3</v>
       </c>
@@ -2230,7 +2219,7 @@
         <v>0.1918</v>
       </c>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" s="25" t="s">
         <v>3</v>
       </c>
@@ -2262,7 +2251,7 @@
       <c r="N39" s="7"/>
       <c r="O39" s="7"/>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" s="25" t="s">
         <v>3</v>
       </c>
@@ -2294,7 +2283,7 @@
       <c r="N40" s="7"/>
       <c r="O40" s="7"/>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" s="25" t="s">
         <v>3</v>
       </c>
@@ -2326,7 +2315,7 @@
       <c r="N41" s="7"/>
       <c r="O41" s="7"/>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" s="25" t="s">
         <v>3</v>
       </c>
@@ -2358,7 +2347,7 @@
       <c r="N42" s="7"/>
       <c r="O42" s="7"/>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" s="25" t="s">
         <v>3</v>
       </c>
@@ -2397,7 +2386,7 @@
       <c r="S43" s="2"/>
       <c r="T43" s="2"/>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" s="25" t="s">
         <v>3</v>
       </c>
@@ -2429,7 +2418,7 @@
       <c r="N44" s="7"/>
       <c r="O44" s="7"/>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" s="25" t="s">
         <v>3</v>
       </c>
@@ -2461,7 +2450,7 @@
       <c r="N45" s="7"/>
       <c r="O45" s="7"/>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" s="25" t="s">
         <v>3</v>
       </c>
@@ -2500,7 +2489,7 @@
       <c r="S46" s="2"/>
       <c r="T46" s="2"/>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" s="25" t="s">
         <v>3</v>
       </c>
@@ -2532,7 +2521,7 @@
       <c r="N47" s="7"/>
       <c r="O47" s="7"/>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48" s="25" t="s">
         <v>3</v>
       </c>
@@ -2564,7 +2553,7 @@
       <c r="N48" s="7"/>
       <c r="O48" s="7"/>
     </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" s="25" t="s">
         <v>3</v>
       </c>
@@ -2596,7 +2585,7 @@
       <c r="N49" s="7"/>
       <c r="O49" s="7"/>
     </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50" s="25" t="s">
         <v>3</v>
       </c>
@@ -2628,7 +2617,7 @@
       <c r="N50" s="7"/>
       <c r="O50" s="7"/>
     </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" s="25" t="s">
         <v>3</v>
       </c>
@@ -2660,7 +2649,7 @@
       <c r="N51" s="7"/>
       <c r="O51" s="7"/>
     </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52" s="25" t="s">
         <v>3</v>
       </c>
@@ -2692,7 +2681,7 @@
       <c r="N52" s="7"/>
       <c r="O52" s="7"/>
     </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53" s="25" t="s">
         <v>3</v>
       </c>
@@ -2724,7 +2713,7 @@
       <c r="N53" s="7"/>
       <c r="O53" s="7"/>
     </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54" s="25" t="s">
         <v>3</v>
       </c>
@@ -2756,7 +2745,7 @@
       <c r="N54" s="7"/>
       <c r="O54" s="10"/>
     </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55" s="25" t="s">
         <v>3</v>
       </c>
@@ -2788,7 +2777,7 @@
       <c r="N55" s="7"/>
       <c r="O55" s="10"/>
     </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56" s="25" t="s">
         <v>3</v>
       </c>
@@ -2827,7 +2816,7 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
     </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57" s="25" t="s">
         <v>3</v>
       </c>
@@ -2866,7 +2855,7 @@
       <c r="S57" s="3"/>
       <c r="T57" s="3"/>
     </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58" s="25" t="s">
         <v>3</v>
       </c>
@@ -2898,7 +2887,7 @@
       <c r="N58" s="7"/>
       <c r="O58" s="10"/>
     </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59" s="25" t="s">
         <v>3</v>
       </c>
@@ -2930,7 +2919,7 @@
       <c r="N59" s="7"/>
       <c r="O59" s="10"/>
     </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60" s="25" t="s">
         <v>3</v>
       </c>
@@ -2960,7 +2949,7 @@
       </c>
       <c r="O60" s="10"/>
     </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61" s="25" t="s">
         <v>3</v>
       </c>
@@ -2990,7 +2979,7 @@
       </c>
       <c r="O61" s="10"/>
     </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62" s="25" t="s">
         <v>3</v>
       </c>
@@ -3020,7 +3009,7 @@
       </c>
       <c r="O62" s="10"/>
     </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63" s="25" t="s">
         <v>3</v>
       </c>
@@ -3050,7 +3039,7 @@
       </c>
       <c r="O63" s="10"/>
     </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64" s="25" t="s">
         <v>3</v>
       </c>
@@ -3080,7 +3069,7 @@
       </c>
       <c r="O64" s="10"/>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65" s="25" t="s">
         <v>3</v>
       </c>
@@ -3110,7 +3099,7 @@
       </c>
       <c r="O65" s="10"/>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66" s="25" t="s">
         <v>3</v>
       </c>
@@ -3140,7 +3129,7 @@
       </c>
       <c r="O66" s="10"/>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A67" s="25" t="s">
         <v>3</v>
       </c>
@@ -3170,7 +3159,7 @@
       </c>
       <c r="O67" s="10"/>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A68" s="25" t="s">
         <v>3</v>
       </c>
@@ -3200,7 +3189,7 @@
       </c>
       <c r="O68" s="10"/>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A69" s="25" t="s">
         <v>3</v>
       </c>
@@ -3230,7 +3219,7 @@
       </c>
       <c r="O69" s="10"/>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70" s="25" t="s">
         <v>3</v>
       </c>
@@ -3260,7 +3249,7 @@
       </c>
       <c r="O70" s="10"/>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71" s="25" t="s">
         <v>3</v>
       </c>
@@ -3290,7 +3279,7 @@
       </c>
       <c r="O71" s="10"/>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A72" s="25" t="s">
         <v>3</v>
       </c>
@@ -3320,7 +3309,7 @@
       </c>
       <c r="O72" s="10"/>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A73" s="25" t="s">
         <v>3</v>
       </c>
@@ -3350,7 +3339,7 @@
       </c>
       <c r="O73" s="10"/>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A74" s="25" t="s">
         <v>3</v>
       </c>
@@ -3380,7 +3369,7 @@
       </c>
       <c r="O74" s="10"/>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A75" s="25" t="s">
         <v>3</v>
       </c>
@@ -3410,7 +3399,7 @@
       </c>
       <c r="O75" s="10"/>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A76" s="25" t="s">
         <v>3</v>
       </c>
@@ -3440,7 +3429,7 @@
       </c>
       <c r="O76" s="10"/>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A77" s="25" t="s">
         <v>3</v>
       </c>
@@ -3470,7 +3459,7 @@
       </c>
       <c r="O77" s="10"/>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A78" s="25" t="s">
         <v>3</v>
       </c>
@@ -3500,7 +3489,7 @@
       </c>
       <c r="O78" s="10"/>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A79" s="25" t="s">
         <v>3</v>
       </c>
@@ -3530,7 +3519,7 @@
       </c>
       <c r="O79" s="10"/>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A80" s="25" t="s">
         <v>3</v>
       </c>
@@ -3560,7 +3549,7 @@
       </c>
       <c r="O80" s="10"/>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A81" s="25" t="s">
         <v>3</v>
       </c>
@@ -3590,7 +3579,7 @@
       </c>
       <c r="O81" s="10"/>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A82" s="25" t="s">
         <v>3</v>
       </c>
@@ -3619,7 +3608,7 @@
         <v>0.41320000000000001</v>
       </c>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A83" s="25" t="s">
         <v>3</v>
       </c>
@@ -3648,7 +3637,7 @@
         <v>0.4143</v>
       </c>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A84" s="25" t="s">
         <v>3</v>
       </c>
@@ -3677,7 +3666,7 @@
         <v>0.41620000000000001</v>
       </c>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A85" s="25" t="s">
         <v>3</v>
       </c>
@@ -3706,7 +3695,7 @@
         <v>0.41720000000000002</v>
       </c>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A86" s="25" t="s">
         <v>3</v>
       </c>
@@ -3735,7 +3724,7 @@
         <v>0.44850000000000001</v>
       </c>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A87" s="25" t="s">
         <v>3</v>
       </c>
@@ -3764,7 +3753,7 @@
         <v>0.44850000000000001</v>
       </c>
     </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A88" s="25" t="s">
         <v>3</v>
       </c>
@@ -3793,7 +3782,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A89" s="25" t="s">
         <v>3</v>
       </c>
@@ -3822,7 +3811,7 @@
         <v>0.45800000000000002</v>
       </c>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A90" s="25" t="s">
         <v>3</v>
       </c>
@@ -3851,7 +3840,7 @@
         <v>0.45939999999999998</v>
       </c>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A91" s="25" t="s">
         <v>3</v>
       </c>
@@ -3880,7 +3869,7 @@
         <v>0.4662</v>
       </c>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A92" s="25" t="s">
         <v>3</v>
       </c>
@@ -3909,7 +3898,7 @@
         <v>0.4662</v>
       </c>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A93" s="25" t="s">
         <v>3</v>
       </c>
@@ -3938,7 +3927,7 @@
         <v>0.46750000000000003</v>
       </c>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A94" s="25" t="s">
         <v>3</v>
       </c>
@@ -3967,7 +3956,7 @@
         <v>0.47570000000000001</v>
       </c>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A95" s="25" t="s">
         <v>3</v>
       </c>
@@ -3996,7 +3985,7 @@
         <v>0.4768</v>
       </c>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A96" s="25" t="s">
         <v>3</v>
       </c>
@@ -4025,7 +4014,7 @@
         <v>0.47870000000000001</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A97" s="25" t="s">
         <v>3</v>
       </c>
@@ -4054,7 +4043,7 @@
         <v>0.47970000000000002</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A98" s="25" t="s">
         <v>3</v>
       </c>
@@ -4083,7 +4072,7 @@
         <v>0.50680000000000003</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A99" s="25" t="s">
         <v>3</v>
       </c>
@@ -4112,7 +4101,7 @@
         <v>0.50680000000000003</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A100" s="25" t="s">
         <v>3</v>
       </c>
@@ -4141,7 +4130,7 @@
         <v>0.50839999999999996</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A101" s="25" t="s">
         <v>3</v>
       </c>
@@ -4170,7 +4159,7 @@
         <v>0.52049999999999996</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A102" s="25" t="s">
         <v>3</v>
       </c>
@@ -4199,7 +4188,7 @@
         <v>0.52190000000000003</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A103" s="25" t="s">
         <v>3</v>
       </c>
@@ -4228,7 +4217,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A104" s="25" t="s">
         <v>3</v>
       </c>
@@ -4257,7 +4246,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A105" s="25" t="s">
         <v>3</v>
       </c>
@@ -4286,7 +4275,7 @@
         <v>0.52639999999999998</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A106" s="25" t="s">
         <v>3</v>
       </c>
@@ -4315,7 +4304,7 @@
         <v>0.52869999999999995</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A107" s="25" t="s">
         <v>3</v>
       </c>
@@ -4344,7 +4333,7 @@
         <v>0.53</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A108" s="25" t="s">
         <v>3</v>
       </c>
@@ -4373,7 +4362,7 @@
         <v>0.53420000000000001</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A109" s="25" t="s">
         <v>3</v>
       </c>
@@ -4402,7 +4391,7 @@
         <v>0.53539999999999999</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A110" s="25" t="s">
         <v>3</v>
       </c>
@@ -4431,7 +4420,7 @@
         <v>0.53820000000000001</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A111" s="25" t="s">
         <v>3</v>
       </c>
@@ -4460,7 +4449,7 @@
         <v>0.5393</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A112" s="25" t="s">
         <v>3</v>
       </c>
@@ -4489,7 +4478,7 @@
         <v>0.54110000000000003</v>
       </c>
     </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A113" s="25" t="s">
         <v>3</v>
       </c>
@@ -4569,8 +4558,8 @@
       <c r="G115" s="20">
         <v>0.62329999999999997</v>
       </c>
-      <c r="H115" s="21" t="s">
-        <v>76</v>
+      <c r="H115" s="21">
+        <v>0.55879999999999996</v>
       </c>
       <c r="I115" s="20">
         <v>0.56430000000000002</v>
@@ -4605,7 +4594,7 @@
         <v>0.56599999999999995</v>
       </c>
     </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A117" s="25" t="s">
         <v>3</v>
       </c>
@@ -4635,7 +4624,7 @@
       </c>
       <c r="N117" s="13"/>
     </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A118" s="25" t="s">
         <v>3</v>
       </c>
@@ -4665,7 +4654,7 @@
       </c>
       <c r="N118" s="11"/>
     </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A119" s="25" t="s">
         <v>3</v>
       </c>
@@ -4695,7 +4684,7 @@
       </c>
       <c r="N119" s="11"/>
     </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A120" s="25" t="s">
         <v>3</v>
       </c>
@@ -4725,7 +4714,7 @@
       </c>
       <c r="N120" s="11"/>
     </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A121" s="25" t="s">
         <v>3</v>
       </c>
@@ -4755,7 +4744,7 @@
       </c>
       <c r="N121" s="11"/>
     </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A122" s="25" t="s">
         <v>3</v>
       </c>
@@ -4785,7 +4774,7 @@
       </c>
       <c r="N122" s="11"/>
     </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A123" s="25" t="s">
         <v>3</v>
       </c>
@@ -4815,7 +4804,7 @@
       </c>
       <c r="N123" s="11"/>
     </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A124" s="25" t="s">
         <v>3</v>
       </c>
@@ -4845,7 +4834,7 @@
       </c>
       <c r="N124" s="11"/>
     </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A125" s="25" t="s">
         <v>3</v>
       </c>
@@ -4875,7 +4864,7 @@
       </c>
       <c r="N125" s="11"/>
     </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A126" s="25" t="s">
         <v>3</v>
       </c>
@@ -4905,7 +4894,7 @@
       </c>
       <c r="N126" s="11"/>
     </row>
-    <row r="127" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A127" s="25" t="s">
         <v>3</v>
       </c>
@@ -4935,7 +4924,7 @@
       </c>
       <c r="N127" s="11"/>
     </row>
-    <row r="128" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A128" s="25" t="s">
         <v>3</v>
       </c>
@@ -4965,7 +4954,7 @@
       </c>
       <c r="N128" s="11"/>
     </row>
-    <row r="129" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A129" s="25" t="s">
         <v>3</v>
       </c>
@@ -4995,7 +4984,7 @@
       </c>
       <c r="N129" s="11"/>
     </row>
-    <row r="130" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A130" s="25" t="s">
         <v>3</v>
       </c>
@@ -5034,7 +5023,7 @@
       <c r="S130" s="3"/>
       <c r="T130" s="3"/>
     </row>
-    <row r="131" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A131" s="25" t="s">
         <v>3</v>
       </c>
@@ -5073,7 +5062,7 @@
       <c r="S131" s="3"/>
       <c r="T131" s="3"/>
     </row>
-    <row r="132" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A132" s="25" t="s">
         <v>3</v>
       </c>
@@ -5103,7 +5092,7 @@
       </c>
       <c r="N132" s="11"/>
     </row>
-    <row r="133" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A133" s="25" t="s">
         <v>3</v>
       </c>
@@ -5133,7 +5122,7 @@
       </c>
       <c r="N133" s="11"/>
     </row>
-    <row r="134" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A134" s="25" t="s">
         <v>3</v>
       </c>
@@ -5163,7 +5152,7 @@
       </c>
       <c r="N134" s="11"/>
     </row>
-    <row r="135" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A135" s="25" t="s">
         <v>3</v>
       </c>
@@ -5193,12 +5182,12 @@
       </c>
       <c r="N135" s="11"/>
     </row>
-    <row r="136" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A136" s="25" t="s">
         <v>3</v>
       </c>
       <c r="B136" s="25" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C136" s="25" t="s">
         <v>34</v>
@@ -5223,12 +5212,12 @@
       </c>
       <c r="N136" s="11"/>
     </row>
-    <row r="137" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A137" s="25" t="s">
         <v>3</v>
       </c>
       <c r="B137" s="25" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C137" s="25" t="s">
         <v>34</v>
@@ -5253,12 +5242,12 @@
       </c>
       <c r="N137" s="11"/>
     </row>
-    <row r="138" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A138" s="25" t="s">
         <v>3</v>
       </c>
       <c r="B138" s="25" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C138" s="25" t="s">
         <v>33</v>
@@ -5283,12 +5272,12 @@
       </c>
       <c r="N138" s="11"/>
     </row>
-    <row r="139" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A139" s="25" t="s">
         <v>3</v>
       </c>
       <c r="B139" s="25" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C139" s="25" t="s">
         <v>33</v>
@@ -5313,12 +5302,12 @@
       </c>
       <c r="N139" s="11"/>
     </row>
-    <row r="140" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A140" s="25" t="s">
         <v>3</v>
       </c>
       <c r="B140" s="25" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C140" s="25" t="s">
         <v>34</v>
@@ -5342,12 +5331,12 @@
         <v>0.66320000000000001</v>
       </c>
     </row>
-    <row r="141" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A141" s="25" t="s">
         <v>3</v>
       </c>
       <c r="B141" s="25" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C141" s="25" t="s">
         <v>34</v>
@@ -5371,12 +5360,12 @@
         <v>0.6643</v>
       </c>
     </row>
-    <row r="142" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A142" s="25" t="s">
         <v>3</v>
       </c>
       <c r="B142" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C142" s="25" t="s">
         <v>34</v>
@@ -5400,12 +5389,12 @@
         <v>0.66610000000000003</v>
       </c>
     </row>
-    <row r="143" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A143" s="25" t="s">
         <v>3</v>
       </c>
       <c r="B143" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C143" s="25" t="s">
         <v>34</v>
@@ -5429,12 +5418,12 @@
         <v>0.66720000000000002</v>
       </c>
     </row>
-    <row r="144" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A144" s="25" t="s">
         <v>3</v>
       </c>
       <c r="B144" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C144" s="12" t="s">
         <v>20</v>
@@ -5458,12 +5447,12 @@
         <v>0.68320000000000003</v>
       </c>
     </row>
-    <row r="145" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A145" s="25" t="s">
         <v>3</v>
       </c>
       <c r="B145" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C145" s="12" t="s">
         <v>20</v>
@@ -5487,12 +5476,12 @@
         <v>0.68320000000000003</v>
       </c>
     </row>
-    <row r="146" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A146" s="25" t="s">
         <v>3</v>
       </c>
       <c r="B146" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C146" s="12" t="s">
         <v>20</v>
@@ -5516,12 +5505,12 @@
         <v>0.68500000000000005</v>
       </c>
     </row>
-    <row r="147" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A147" s="25" t="s">
         <v>3</v>
       </c>
       <c r="B147" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C147" s="12" t="s">
         <v>34</v>
@@ -5545,12 +5534,12 @@
         <v>0.69420000000000004</v>
       </c>
     </row>
-    <row r="148" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A148" s="25" t="s">
         <v>3</v>
       </c>
       <c r="B148" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C148" s="12" t="s">
         <v>34</v>
@@ -5574,12 +5563,12 @@
         <v>0.69589999999999996</v>
       </c>
     </row>
-    <row r="149" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A149" s="25" t="s">
         <v>3</v>
       </c>
       <c r="B149" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C149" s="12" t="s">
         <v>19</v>
@@ -5603,12 +5592,12 @@
         <v>0.70789999999999997</v>
       </c>
     </row>
-    <row r="150" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A150" s="25" t="s">
         <v>3</v>
       </c>
       <c r="B150" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C150" s="12" t="s">
         <v>19</v>
@@ -5642,12 +5631,12 @@
       <c r="S150" s="3"/>
       <c r="T150" s="3"/>
     </row>
-    <row r="151" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A151" s="25" t="s">
         <v>3</v>
       </c>
       <c r="B151" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C151" s="12" t="s">
         <v>19</v>
@@ -5671,12 +5660,12 @@
         <v>0.70940000000000003</v>
       </c>
     </row>
-    <row r="152" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A152" s="25" t="s">
         <v>3</v>
       </c>
       <c r="B152" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C152" s="12" t="s">
         <v>33</v>
@@ -5700,12 +5689,12 @@
         <v>0.71619999999999995</v>
       </c>
     </row>
-    <row r="153" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A153" s="25" t="s">
         <v>3</v>
       </c>
       <c r="B153" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C153" s="12" t="s">
         <v>33</v>
@@ -5729,12 +5718,12 @@
         <v>0.71750000000000003</v>
       </c>
     </row>
-    <row r="154" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A154" s="25" t="s">
         <v>3</v>
       </c>
       <c r="B154" s="14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C154" s="12" t="s">
         <v>34</v>
@@ -5758,12 +5747,12 @@
         <v>0.72560000000000002</v>
       </c>
     </row>
-    <row r="155" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A155" s="25" t="s">
         <v>3</v>
       </c>
       <c r="B155" s="14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C155" s="12" t="s">
         <v>34</v>
@@ -5787,12 +5776,12 @@
         <v>0.7268</v>
       </c>
     </row>
-    <row r="156" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A156" s="25" t="s">
         <v>3</v>
       </c>
       <c r="B156" s="14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C156" s="12" t="s">
         <v>34</v>
@@ -5816,12 +5805,12 @@
         <v>0.72860000000000003</v>
       </c>
     </row>
-    <row r="157" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A157" s="25" t="s">
         <v>3</v>
       </c>
       <c r="B157" s="14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C157" s="12" t="s">
         <v>34</v>
@@ -5845,12 +5834,12 @@
         <v>0.72970000000000002</v>
       </c>
     </row>
-    <row r="158" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A158" s="25" t="s">
         <v>3</v>
       </c>
       <c r="B158" s="24" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C158" s="12" t="s">
         <v>34</v>
@@ -5874,12 +5863,12 @@
         <v>0.75670000000000004</v>
       </c>
     </row>
-    <row r="159" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A159" s="25" t="s">
         <v>3</v>
       </c>
       <c r="B159" s="24" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C159" s="12" t="s">
         <v>34</v>
@@ -5903,12 +5892,12 @@
         <v>0.75839999999999996</v>
       </c>
     </row>
-    <row r="160" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A160" s="25" t="s">
         <v>3</v>
       </c>
       <c r="B160" s="24" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C160" s="12" t="s">
         <v>34</v>
@@ -5932,12 +5921,12 @@
         <v>0.77039999999999997</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A161" s="25" t="s">
         <v>3</v>
       </c>
       <c r="B161" s="24" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C161" s="12" t="s">
         <v>34</v>
@@ -5961,12 +5950,12 @@
         <v>0.77190000000000003</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A162" s="25" t="s">
         <v>3</v>
       </c>
       <c r="B162" s="24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C162" s="25" t="s">
         <v>33</v>
@@ -5990,12 +5979,12 @@
         <v>0.77869999999999995</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A163" s="25" t="s">
         <v>3</v>
       </c>
       <c r="B163" s="24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C163" s="25" t="s">
         <v>33</v>
@@ -6019,12 +6008,12 @@
         <v>0.78</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A164" s="25" t="s">
         <v>3</v>
       </c>
       <c r="B164" s="24" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C164" s="25" t="s">
         <v>34</v>
@@ -6048,12 +6037,12 @@
         <v>0.78810000000000002</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A165" s="25" t="s">
         <v>3</v>
       </c>
       <c r="B165" s="24" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C165" s="25" t="s">
         <v>34</v>
@@ -6077,12 +6066,12 @@
         <v>0.7893</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A166" s="25" t="s">
         <v>3</v>
       </c>
       <c r="B166" s="24" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C166" s="25" t="s">
         <v>34</v>
@@ -6106,12 +6095,12 @@
         <v>0.79110000000000003</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A167" s="25" t="s">
         <v>3</v>
       </c>
       <c r="B167" s="24" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C167" s="25" t="s">
         <v>34</v>
@@ -6135,12 +6124,12 @@
         <v>0.79220000000000002</v>
       </c>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A168" s="25" t="s">
         <v>3</v>
       </c>
       <c r="B168" s="24" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C168" s="25" t="s">
         <v>20</v>
@@ -6164,12 +6153,12 @@
         <v>0.80089999999999995</v>
       </c>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A169" s="25" t="s">
         <v>3</v>
       </c>
       <c r="B169" s="24" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C169" s="25" t="s">
         <v>20</v>
@@ -6193,12 +6182,12 @@
         <v>0.80089999999999995</v>
       </c>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A170" s="25" t="s">
         <v>3</v>
       </c>
       <c r="B170" s="24" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C170" s="25" t="s">
         <v>20</v>
@@ -6222,12 +6211,12 @@
         <v>0.80279999999999996</v>
       </c>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A171" s="25" t="s">
         <v>3</v>
       </c>
       <c r="B171" s="14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C171" s="25" t="s">
         <v>34</v>
@@ -6251,12 +6240,12 @@
         <v>0.81920000000000004</v>
       </c>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A172" s="25" t="s">
         <v>3</v>
       </c>
       <c r="B172" s="14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C172" s="25" t="s">
         <v>34</v>
@@ -6280,12 +6269,12 @@
         <v>0.82089999999999996</v>
       </c>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A173" s="25" t="s">
         <v>3</v>
       </c>
       <c r="B173" s="24" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C173" s="25" t="s">
         <v>19</v>
@@ -6309,12 +6298,12 @@
         <v>0.82699999999999996</v>
       </c>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A174" s="25" t="s">
         <v>3</v>
       </c>
       <c r="B174" s="24" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C174" s="25" t="s">
         <v>19</v>
@@ -6338,12 +6327,12 @@
         <v>0.82699999999999996</v>
       </c>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A175" s="25" t="s">
         <v>3</v>
       </c>
       <c r="B175" s="24" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C175" s="25" t="s">
         <v>19</v>
@@ -6367,12 +6356,12 @@
         <v>0.8286</v>
       </c>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A176" s="25" t="s">
         <v>3</v>
       </c>
       <c r="B176" s="24" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C176" s="25" t="s">
         <v>34</v>
@@ -6396,12 +6385,12 @@
         <v>0.83289999999999997</v>
       </c>
     </row>
-    <row r="177" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A177" s="25" t="s">
         <v>3</v>
       </c>
       <c r="B177" s="24" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C177" s="25" t="s">
         <v>34</v>
@@ -6425,12 +6414,12 @@
         <v>0.83440000000000003</v>
       </c>
     </row>
-    <row r="178" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A178" s="25" t="s">
         <v>3</v>
       </c>
       <c r="B178" s="24" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C178" s="25" t="s">
         <v>33</v>
@@ -6454,12 +6443,12 @@
         <v>0.84119999999999995</v>
       </c>
     </row>
-    <row r="179" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A179" s="25" t="s">
         <v>3</v>
       </c>
       <c r="B179" s="24" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C179" s="25" t="s">
         <v>33</v>
@@ -6483,12 +6472,12 @@
         <v>0.84250000000000003</v>
       </c>
     </row>
-    <row r="180" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A180" s="25" t="s">
         <v>3</v>
       </c>
       <c r="B180" s="24" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C180" s="25" t="s">
         <v>34</v>
@@ -6512,12 +6501,12 @@
         <v>0.85060000000000002</v>
       </c>
     </row>
-    <row r="181" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A181" s="25" t="s">
         <v>3</v>
       </c>
       <c r="B181" s="24" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C181" s="25" t="s">
         <v>34</v>
@@ -6541,12 +6530,12 @@
         <v>0.8518</v>
       </c>
     </row>
-    <row r="182" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A182" s="25" t="s">
         <v>3</v>
       </c>
       <c r="B182" s="24" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C182" s="25" t="s">
         <v>34</v>
@@ -6570,12 +6559,12 @@
         <v>0.85360000000000003</v>
       </c>
     </row>
-    <row r="183" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A183" s="25" t="s">
         <v>3</v>
       </c>
       <c r="B183" s="24" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C183" s="25" t="s">
         <v>34</v>
@@ -6599,12 +6588,12 @@
         <v>0.85470000000000002</v>
       </c>
     </row>
-    <row r="184" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A184" s="25" t="s">
         <v>3</v>
       </c>
       <c r="B184" s="25" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C184" s="25" t="s">
         <v>34</v>
@@ -6628,12 +6617,12 @@
         <v>0.88170000000000004</v>
       </c>
     </row>
-    <row r="185" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A185" s="25" t="s">
         <v>3</v>
       </c>
       <c r="B185" s="25" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C185" s="25" t="s">
         <v>34</v>
@@ -6657,12 +6646,12 @@
         <v>0.88339999999999996</v>
       </c>
     </row>
-    <row r="186" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A186" s="25" t="s">
         <v>3</v>
       </c>
       <c r="B186" s="25" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C186" s="25" t="s">
         <v>34</v>
@@ -6686,12 +6675,12 @@
         <v>0.89539999999999997</v>
       </c>
     </row>
-    <row r="187" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A187" s="25" t="s">
         <v>3</v>
       </c>
       <c r="B187" s="25" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C187" s="25" t="s">
         <v>34</v>
@@ -6715,12 +6704,12 @@
         <v>0.89690000000000003</v>
       </c>
     </row>
-    <row r="188" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A188" s="25" t="s">
         <v>3</v>
       </c>
       <c r="B188" s="15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C188" s="12" t="s">
         <v>20</v>
@@ -6744,12 +6733,12 @@
         <v>0.91679999999999995</v>
       </c>
     </row>
-    <row r="189" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A189" s="25" t="s">
         <v>3</v>
       </c>
       <c r="B189" s="15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C189" s="12" t="s">
         <v>20</v>
@@ -6783,12 +6772,12 @@
       <c r="S189" s="3"/>
       <c r="T189" s="3"/>
     </row>
-    <row r="190" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A190" s="25" t="s">
         <v>3</v>
       </c>
       <c r="B190" s="15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C190" s="12" t="s">
         <v>20</v>
@@ -6822,12 +6811,12 @@
       <c r="S190" s="3"/>
       <c r="T190" s="3"/>
     </row>
-    <row r="191" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A191" s="25" t="s">
         <v>3</v>
       </c>
       <c r="B191" s="24" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C191" s="25" t="s">
         <v>19</v>
@@ -6851,12 +6840,12 @@
         <v>0.94410000000000005</v>
       </c>
     </row>
-    <row r="192" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A192" s="25" t="s">
         <v>3</v>
       </c>
       <c r="B192" s="24" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C192" s="25" t="s">
         <v>19</v>
@@ -6890,12 +6879,12 @@
       <c r="S192" s="3"/>
       <c r="T192" s="3"/>
     </row>
-    <row r="193" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A193" s="25" t="s">
         <v>3</v>
       </c>
       <c r="B193" s="24" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C193" s="25" t="s">
         <v>19</v>
@@ -6929,15 +6918,15 @@
       <c r="S193" s="3"/>
       <c r="T193" s="3"/>
     </row>
-    <row r="194" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A194" s="25" t="s">
         <v>3</v>
       </c>
       <c r="B194" s="24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C194" s="25" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D194" s="12" t="s">
         <v>17</v>
@@ -6958,15 +6947,15 @@
         <v>0.95199999999999996</v>
       </c>
     </row>
-    <row r="195" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A195" s="25" t="s">
         <v>3</v>
       </c>
       <c r="B195" s="24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C195" s="25" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D195" s="12" t="s">
         <v>18</v>
@@ -6997,12 +6986,12 @@
       <c r="S195" s="3"/>
       <c r="T195" s="3"/>
     </row>
-    <row r="196" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A196" s="25" t="s">
         <v>3</v>
       </c>
       <c r="B196" s="24" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C196" s="25" t="s">
         <v>34</v>
@@ -7026,12 +7015,12 @@
         <v>0.95789999999999997</v>
       </c>
     </row>
-    <row r="197" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A197" s="25" t="s">
         <v>3</v>
       </c>
       <c r="B197" s="28" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C197" s="25" t="s">
         <v>34</v>
@@ -7065,12 +7054,12 @@
       <c r="S197" s="3"/>
       <c r="T197" s="3"/>
     </row>
-    <row r="198" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A198" s="25" t="s">
         <v>3</v>
       </c>
       <c r="B198" s="24" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C198" s="25" t="s">
         <v>33</v>
@@ -7094,12 +7083,12 @@
         <v>0.96609999999999996</v>
       </c>
     </row>
-    <row r="199" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A199" s="25" t="s">
         <v>3</v>
       </c>
       <c r="B199" s="24" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C199" s="25" t="s">
         <v>33</v>
@@ -7133,12 +7122,12 @@
       <c r="S199" s="3"/>
       <c r="T199" s="3"/>
     </row>
-    <row r="200" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A200" s="25" t="s">
         <v>3</v>
       </c>
       <c r="B200" s="24" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C200" s="25" t="s">
         <v>34</v>
@@ -7162,12 +7151,12 @@
         <v>0.97560000000000002</v>
       </c>
     </row>
-    <row r="201" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A201" s="25" t="s">
         <v>3</v>
       </c>
       <c r="B201" s="24" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C201" s="25" t="s">
         <v>34</v>
@@ -7201,12 +7190,12 @@
       <c r="S201" s="3"/>
       <c r="T201" s="3"/>
     </row>
-    <row r="202" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A202" s="25" t="s">
         <v>3</v>
       </c>
       <c r="B202" s="24" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C202" s="25" t="s">
         <v>34</v>
@@ -7230,12 +7219,12 @@
         <v>0.97860000000000003</v>
       </c>
     </row>
-    <row r="203" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A203" s="25" t="s">
         <v>3</v>
       </c>
       <c r="B203" s="22" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C203" s="25" t="s">
         <v>34</v>
@@ -7259,12 +7248,12 @@
         <v>0.97970000000000002</v>
       </c>
     </row>
-    <row r="204" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A204" s="25" t="s">
         <v>3</v>
       </c>
       <c r="B204" s="24" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C204" s="25" t="s">
         <v>20</v>
@@ -7288,12 +7277,12 @@
         <v>1.3893</v>
       </c>
     </row>
-    <row r="205" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A205" s="25" t="s">
         <v>3</v>
       </c>
       <c r="B205" s="24" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C205" s="25" t="s">
         <v>20</v>
@@ -7317,12 +7306,12 @@
         <v>1.3893</v>
       </c>
     </row>
-    <row r="206" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A206" s="25" t="s">
         <v>3</v>
       </c>
       <c r="B206" s="24" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C206" s="25" t="s">
         <v>20</v>
@@ -7346,12 +7335,12 @@
         <v>1.3916999999999999</v>
       </c>
     </row>
-    <row r="207" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A207" s="25" t="s">
         <v>3</v>
       </c>
       <c r="B207" s="24" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C207" s="25" t="s">
         <v>34</v>
@@ -7375,12 +7364,12 @@
         <v>1.4166000000000001</v>
       </c>
     </row>
-    <row r="208" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A208" s="25" t="s">
         <v>3</v>
       </c>
       <c r="B208" s="24" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C208" s="25" t="s">
         <v>34</v>
@@ -7404,12 +7393,12 @@
         <v>1.4188000000000001</v>
       </c>
     </row>
-    <row r="209" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A209" s="25" t="s">
         <v>3</v>
       </c>
       <c r="B209" s="24" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C209" s="25" t="s">
         <v>19</v>
@@ -7433,12 +7422,12 @@
         <v>1.444</v>
       </c>
     </row>
-    <row r="210" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A210" s="25" t="s">
         <v>3</v>
       </c>
       <c r="B210" s="24" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C210" s="25" t="s">
         <v>19</v>
@@ -7462,12 +7451,12 @@
         <v>1.444</v>
       </c>
     </row>
-    <row r="211" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A211" s="25" t="s">
         <v>3</v>
       </c>
       <c r="B211" s="24" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C211" s="25" t="s">
         <v>19</v>
@@ -7491,12 +7480,12 @@
         <v>1.4459</v>
       </c>
     </row>
-    <row r="212" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A212" s="25" t="s">
         <v>3</v>
       </c>
       <c r="B212" s="24" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C212" s="25" t="s">
         <v>34</v>
@@ -7520,12 +7509,12 @@
         <v>1.4578</v>
       </c>
     </row>
-    <row r="213" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A213" s="25" t="s">
         <v>3</v>
       </c>
       <c r="B213" s="24" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C213" s="25" t="s">
         <v>34</v>
@@ -7549,12 +7538,12 @@
         <v>1.4594</v>
       </c>
     </row>
-    <row r="214" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A214" s="25" t="s">
         <v>3</v>
       </c>
       <c r="B214" s="24" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C214" s="25" t="s">
         <v>33</v>
@@ -7578,12 +7567,12 @@
         <v>1.4623999999999999</v>
       </c>
     </row>
-    <row r="215" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A215" s="25" t="s">
         <v>3</v>
       </c>
       <c r="B215" s="24" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C215" s="25" t="s">
         <v>33</v>
@@ -7607,12 +7596,12 @@
         <v>1.4639</v>
       </c>
     </row>
-    <row r="216" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A216" s="25" t="s">
         <v>3</v>
       </c>
       <c r="B216" s="24" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C216" s="25" t="s">
         <v>34</v>
@@ -7636,12 +7625,12 @@
         <v>1.4661</v>
       </c>
     </row>
-    <row r="217" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A217" s="25" t="s">
         <v>3</v>
       </c>
       <c r="B217" s="24" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C217" s="25" t="s">
         <v>34</v>
@@ -7665,12 +7654,12 @@
         <v>1.4675</v>
       </c>
     </row>
-    <row r="218" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A218" s="25" t="s">
         <v>3</v>
       </c>
       <c r="B218" s="24" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C218" s="25" t="s">
         <v>34</v>
@@ -7694,12 +7683,12 @@
         <v>1.4755</v>
       </c>
     </row>
-    <row r="219" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A219" s="25" t="s">
         <v>3</v>
       </c>
       <c r="B219" s="24" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C219" s="25" t="s">
         <v>34</v>
@@ -7723,12 +7712,12 @@
         <v>1.4767999999999999</v>
       </c>
     </row>
-    <row r="220" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A220" s="25" t="s">
         <v>3</v>
       </c>
       <c r="B220" s="24" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C220" s="25" t="s">
         <v>20</v>
@@ -7752,12 +7741,12 @@
         <v>1.8528</v>
       </c>
     </row>
-    <row r="221" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A221" s="25" t="s">
         <v>3</v>
       </c>
       <c r="B221" s="24" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C221" s="25" t="s">
         <v>20</v>
@@ -7791,12 +7780,12 @@
       <c r="S221" s="3"/>
       <c r="T221" s="3"/>
     </row>
-    <row r="222" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A222" s="25" t="s">
         <v>3</v>
       </c>
       <c r="B222" s="24" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C222" s="25" t="s">
         <v>20</v>
@@ -7820,12 +7809,12 @@
         <v>1.8556999999999999</v>
       </c>
     </row>
-    <row r="223" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A223" s="25" t="s">
         <v>3</v>
       </c>
       <c r="B223" s="24" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C223" s="25" t="s">
         <v>34</v>
@@ -7849,12 +7838,12 @@
         <v>1.8891</v>
       </c>
     </row>
-    <row r="224" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A224" s="25" t="s">
         <v>3</v>
       </c>
       <c r="B224" s="24" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C224" s="25" t="s">
         <v>34</v>
@@ -7878,12 +7867,12 @@
         <v>1.8916999999999999</v>
       </c>
     </row>
-    <row r="225" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A225" s="25" t="s">
         <v>3</v>
       </c>
       <c r="B225" s="24" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C225" s="25" t="s">
         <v>34</v>
@@ -7907,12 +7896,12 @@
         <v>1.9165000000000001</v>
       </c>
     </row>
-    <row r="226" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A226" s="25" t="s">
         <v>3</v>
       </c>
       <c r="B226" s="24" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C226" s="25" t="s">
         <v>34</v>
@@ -7936,12 +7925,12 @@
         <v>1.9188000000000001</v>
       </c>
     </row>
-    <row r="227" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A227" s="25" t="s">
         <v>3</v>
       </c>
       <c r="B227" s="24" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C227" s="25" t="s">
         <v>34</v>
@@ -7965,12 +7954,12 @@
         <v>1.9440999999999999</v>
       </c>
     </row>
-    <row r="228" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A228" s="25" t="s">
         <v>3</v>
       </c>
       <c r="B228" s="24" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C228" s="25" t="s">
         <v>34</v>
@@ -7994,12 +7983,12 @@
         <v>1.9459</v>
       </c>
     </row>
-    <row r="229" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A229" s="25" t="s">
         <v>3</v>
       </c>
       <c r="B229" s="24" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C229" s="25" t="s">
         <v>34</v>
@@ -8023,12 +8012,12 @@
         <v>1.9578</v>
       </c>
     </row>
-    <row r="230" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A230" s="25" t="s">
         <v>3</v>
       </c>
       <c r="B230" s="24" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C230" s="25" t="s">
         <v>34</v>
@@ -8052,12 +8041,12 @@
         <v>1.9594</v>
       </c>
     </row>
-    <row r="231" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A231" s="25" t="s">
         <v>3</v>
       </c>
       <c r="B231" s="24" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C231" s="25" t="s">
         <v>34</v>
@@ -8081,12 +8070,12 @@
         <v>1.966</v>
       </c>
     </row>
-    <row r="232" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A232" s="25" t="s">
         <v>3</v>
       </c>
       <c r="B232" s="24" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C232" s="25" t="s">
         <v>34</v>
@@ -8110,12 +8099,12 @@
         <v>1.9675</v>
       </c>
     </row>
-    <row r="233" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A233" s="25" t="s">
         <v>3</v>
       </c>
       <c r="B233" s="28" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C233" s="25" t="s">
         <v>20</v>
@@ -8140,12 +8129,12 @@
       </c>
       <c r="T233"/>
     </row>
-    <row r="234" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A234" s="25" t="s">
         <v>3</v>
       </c>
       <c r="B234" s="24" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C234" s="25" t="s">
         <v>20</v>
@@ -8179,12 +8168,12 @@
       <c r="S234" s="3"/>
       <c r="T234"/>
     </row>
-    <row r="235" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A235" s="25" t="s">
         <v>3</v>
       </c>
       <c r="B235" s="24" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C235" s="25" t="s">
         <v>20</v>
@@ -8209,12 +8198,12 @@
       </c>
       <c r="T235"/>
     </row>
-    <row r="236" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A236" s="25" t="s">
         <v>3</v>
       </c>
       <c r="B236" s="25" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C236" s="25" t="s">
         <v>34</v>
@@ -8239,12 +8228,12 @@
       </c>
       <c r="T236"/>
     </row>
-    <row r="237" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A237" s="25" t="s">
         <v>3</v>
       </c>
       <c r="B237" s="25" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C237" s="25" t="s">
         <v>34</v>
@@ -8269,12 +8258,12 @@
       </c>
       <c r="T237"/>
     </row>
-    <row r="238" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A238" s="25" t="s">
         <v>3</v>
       </c>
       <c r="B238" s="25" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C238" s="25" t="s">
         <v>34</v>
@@ -8299,12 +8288,12 @@
       </c>
       <c r="T238"/>
     </row>
-    <row r="239" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A239" s="25" t="s">
         <v>3</v>
       </c>
       <c r="B239" s="25" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C239" s="25" t="s">
         <v>34</v>
@@ -8329,12 +8318,12 @@
       </c>
       <c r="T239"/>
     </row>
-    <row r="240" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A240" s="25" t="s">
         <v>3</v>
       </c>
       <c r="B240" s="25" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C240" s="25" t="s">
         <v>34</v>
@@ -8358,12 +8347,12 @@
         <v>2.1941000000000002</v>
       </c>
     </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A241" s="25" t="s">
         <v>3</v>
       </c>
       <c r="B241" s="25" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C241" s="25" t="s">
         <v>34</v>
@@ -8387,12 +8376,12 @@
         <v>2.1959</v>
       </c>
     </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A242" s="25" t="s">
         <v>3</v>
       </c>
       <c r="B242" s="25" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C242" s="25" t="s">
         <v>34</v>
@@ -8416,12 +8405,12 @@
         <v>2.2078000000000002</v>
       </c>
     </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A243" s="25" t="s">
         <v>3</v>
       </c>
       <c r="B243" s="25" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C243" s="25" t="s">
         <v>34</v>
@@ -8445,12 +8434,12 @@
         <v>2.2094</v>
       </c>
     </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A244" s="25" t="s">
         <v>3</v>
       </c>
       <c r="B244" s="25" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C244" s="25" t="s">
         <v>34</v>
@@ -8474,12 +8463,12 @@
         <v>2.2160000000000002</v>
       </c>
     </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A245" s="25" t="s">
         <v>3</v>
       </c>
       <c r="B245" s="25" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C245" s="25" t="s">
         <v>34</v>
@@ -8503,12 +8492,12 @@
         <v>2.2174999999999998</v>
       </c>
     </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A246" s="25" t="s">
         <v>3</v>
       </c>
       <c r="B246" s="24" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C246" s="25" t="s">
         <v>20</v>
@@ -8532,12 +8521,12 @@
         <v>2.3344999999999998</v>
       </c>
     </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A247" s="25" t="s">
         <v>3</v>
       </c>
       <c r="B247" s="24" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C247" s="25" t="s">
         <v>20</v>
@@ -8561,12 +8550,12 @@
         <v>2.3344999999999998</v>
       </c>
     </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A248" s="25" t="s">
         <v>3</v>
       </c>
       <c r="B248" s="24" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C248" s="25" t="s">
         <v>20</v>
@@ -8590,12 +8579,12 @@
         <v>2.3376000000000001</v>
       </c>
     </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A249" s="25" t="s">
         <v>3</v>
       </c>
       <c r="B249" s="25" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C249" s="25" t="s">
         <v>34</v>
@@ -8619,12 +8608,12 @@
         <v>2.3889999999999998</v>
       </c>
     </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A250" s="25" t="s">
         <v>3</v>
       </c>
       <c r="B250" s="25" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C250" s="25" t="s">
         <v>34</v>
@@ -8648,12 +8637,12 @@
         <v>2.3917000000000002</v>
       </c>
     </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A251" s="25" t="s">
         <v>3</v>
       </c>
       <c r="B251" s="25" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C251" s="25" t="s">
         <v>34</v>
@@ -8677,12 +8666,12 @@
         <v>2.4163999999999999</v>
       </c>
     </row>
-    <row r="252" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A252" s="25" t="s">
         <v>3</v>
       </c>
       <c r="B252" s="25" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C252" s="25" t="s">
         <v>34</v>
@@ -8706,12 +8695,12 @@
         <v>2.4188000000000001</v>
       </c>
     </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A253" s="25" t="s">
         <v>3</v>
       </c>
       <c r="B253" s="25" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C253" s="25" t="s">
         <v>34</v>
@@ -8735,12 +8724,12 @@
         <v>2.444</v>
       </c>
     </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A254" s="25" t="s">
         <v>3</v>
       </c>
       <c r="B254" s="25" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C254" s="25" t="s">
         <v>34</v>
@@ -8764,12 +8753,12 @@
         <v>2.4459</v>
       </c>
     </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A255" s="25" t="s">
         <v>3</v>
       </c>
       <c r="B255" s="25" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C255" s="25" t="s">
         <v>34</v>
@@ -8793,12 +8782,12 @@
         <v>2.4577</v>
       </c>
     </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A256" s="25" t="s">
         <v>3</v>
       </c>
       <c r="B256" s="25" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C256" s="25" t="s">
         <v>34</v>
@@ -8822,12 +8811,12 @@
         <v>2.4594</v>
       </c>
     </row>
-    <row r="257" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A257" s="25" t="s">
         <v>3</v>
       </c>
       <c r="B257" s="25" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C257" s="25" t="s">
         <v>34</v>
@@ -8851,12 +8840,12 @@
         <v>2.4660000000000002</v>
       </c>
     </row>
-    <row r="258" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A258" s="25" t="s">
         <v>3</v>
       </c>
       <c r="B258" s="25" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C258" s="25" t="s">
         <v>34</v>
@@ -8880,12 +8869,12 @@
         <v>2.4674999999999998</v>
       </c>
     </row>
-    <row r="259" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A259" s="25" t="s">
         <v>3</v>
       </c>
       <c r="B259" s="24" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C259" s="25" t="s">
         <v>20</v>
@@ -8909,12 +8898,12 @@
         <v>2.8344</v>
       </c>
     </row>
-    <row r="260" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A260" s="25" t="s">
         <v>3</v>
       </c>
       <c r="B260" s="24" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C260" s="25" t="s">
         <v>20</v>
@@ -8948,12 +8937,12 @@
       <c r="S260" s="3"/>
       <c r="T260" s="3"/>
     </row>
-    <row r="261" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A261" s="25" t="s">
         <v>3</v>
       </c>
       <c r="B261" s="24" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C261" s="25" t="s">
         <v>20</v>
@@ -8987,12 +8976,12 @@
       <c r="S261" s="3"/>
       <c r="T261" s="3"/>
     </row>
-    <row r="262" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A262" s="25" t="s">
         <v>3</v>
       </c>
       <c r="B262" s="24" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C262" s="25" t="s">
         <v>34</v>
@@ -9016,12 +9005,12 @@
         <v>2.8889</v>
       </c>
     </row>
-    <row r="263" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A263" s="25" t="s">
         <v>3</v>
       </c>
       <c r="B263" s="24" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C263" s="25" t="s">
         <v>34</v>
@@ -9055,12 +9044,12 @@
       <c r="S263" s="3"/>
       <c r="T263" s="3"/>
     </row>
-    <row r="264" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A264" s="25" t="s">
         <v>3</v>
       </c>
       <c r="B264" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C264" s="25" t="s">
         <v>34</v>
@@ -9084,12 +9073,12 @@
         <v>2.9161999999999999</v>
       </c>
     </row>
-    <row r="265" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A265" s="25" t="s">
         <v>3</v>
       </c>
       <c r="B265" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C265" s="25" t="s">
         <v>34</v>
@@ -9123,12 +9112,12 @@
       <c r="S265" s="3"/>
       <c r="T265" s="3"/>
     </row>
-    <row r="266" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A266" s="25" t="s">
         <v>3</v>
       </c>
       <c r="B266" s="24" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C266" s="25" t="s">
         <v>34</v>
@@ -9152,12 +9141,12 @@
         <v>2.944</v>
       </c>
     </row>
-    <row r="267" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A267" s="25" t="s">
         <v>3</v>
       </c>
       <c r="B267" s="24" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C267" s="25" t="s">
         <v>34</v>
@@ -9191,12 +9180,12 @@
       <c r="S267" s="3"/>
       <c r="T267" s="3"/>
     </row>
-    <row r="268" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A268" s="25" t="s">
         <v>3</v>
       </c>
       <c r="B268" s="24" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C268" s="25" t="s">
         <v>34</v>
@@ -9220,12 +9209,12 @@
         <v>2.9577</v>
       </c>
     </row>
-    <row r="269" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A269" s="25" t="s">
         <v>3</v>
       </c>
       <c r="B269" s="24" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C269" s="25" t="s">
         <v>34</v>
@@ -9259,12 +9248,12 @@
       <c r="S269" s="3"/>
       <c r="T269" s="3"/>
     </row>
-    <row r="270" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A270" s="25" t="s">
         <v>3</v>
       </c>
       <c r="B270" s="24" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C270" s="25" t="s">
         <v>34</v>
@@ -9288,12 +9277,12 @@
         <v>2.9659</v>
       </c>
     </row>
-    <row r="271" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A271" s="25" t="s">
         <v>3</v>
       </c>
       <c r="B271" s="24" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C271" s="25" t="s">
         <v>34</v>
@@ -9317,12 +9306,12 @@
         <v>2.9674999999999998</v>
       </c>
     </row>
-    <row r="272" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A272" s="25" t="s">
         <v>3</v>
       </c>
       <c r="B272" s="25" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C272" s="25" t="s">
         <v>20</v>
@@ -9346,12 +9335,12 @@
         <v>1.03</v>
       </c>
     </row>
-    <row r="273" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A273" s="27" t="s">
         <v>3</v>
       </c>
       <c r="B273" s="27" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C273" s="27" t="s">
         <v>20</v>
@@ -9375,12 +9364,12 @@
         <v>1.03</v>
       </c>
     </row>
-    <row r="274" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A274" s="27" t="s">
         <v>3</v>
       </c>
       <c r="B274" s="27" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C274" s="27" t="s">
         <v>20</v>
@@ -9404,12 +9393,12 @@
         <v>1.0322</v>
       </c>
     </row>
-    <row r="275" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A275" s="27" t="s">
         <v>3</v>
       </c>
       <c r="B275" s="25" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C275" s="25" t="s">
         <v>34</v>
@@ -9433,12 +9422,12 @@
         <v>1.0417000000000001</v>
       </c>
     </row>
-    <row r="276" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A276" s="27" t="s">
         <v>3</v>
       </c>
       <c r="B276" s="27" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C276" s="25" t="s">
         <v>34</v>
@@ -9462,12 +9451,12 @@
         <v>1.0438000000000001</v>
       </c>
     </row>
-    <row r="277" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A277" s="27" t="s">
         <v>3</v>
       </c>
       <c r="B277" s="27" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C277" s="25" t="s">
         <v>19</v>
@@ -9491,12 +9480,12 @@
         <v>1.0690999999999999</v>
       </c>
     </row>
-    <row r="278" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A278" s="27" t="s">
         <v>3</v>
       </c>
       <c r="B278" s="27" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C278" s="25" t="s">
         <v>19</v>
@@ -9520,12 +9509,12 @@
         <v>1.0690999999999999</v>
       </c>
     </row>
-    <row r="279" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A279" s="27" t="s">
         <v>3</v>
       </c>
       <c r="B279" s="25" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C279" s="25" t="s">
         <v>19</v>
@@ -9549,12 +9538,12 @@
         <v>1.0709</v>
       </c>
     </row>
-    <row r="280" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A280" s="27" t="s">
         <v>3</v>
       </c>
       <c r="B280" s="25" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C280" s="25" t="s">
         <v>34</v>
@@ -9578,12 +9567,12 @@
         <v>1.0829</v>
       </c>
     </row>
-    <row r="281" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A281" s="27" t="s">
         <v>3</v>
       </c>
       <c r="B281" s="27" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C281" s="27" t="s">
         <v>34</v>
@@ -9607,12 +9596,12 @@
         <v>1.0844</v>
       </c>
     </row>
-    <row r="282" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A282" s="27" t="s">
         <v>3</v>
       </c>
       <c r="B282" s="25" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C282" s="25" t="s">
         <v>33</v>
@@ -9636,12 +9625,12 @@
         <v>1.0874999999999999</v>
       </c>
     </row>
-    <row r="283" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A283" s="27" t="s">
         <v>3</v>
       </c>
       <c r="B283" s="27" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C283" s="25" t="s">
         <v>33</v>
@@ -9665,12 +9654,12 @@
         <v>1.0889</v>
       </c>
     </row>
-    <row r="284" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A284" s="27" t="s">
         <v>3</v>
       </c>
       <c r="B284" s="25" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C284" s="25" t="s">
         <v>34</v>
@@ -9694,12 +9683,12 @@
         <v>1.0911</v>
       </c>
     </row>
-    <row r="285" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A285" s="27" t="s">
         <v>3</v>
       </c>
       <c r="B285" s="27" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C285" s="25" t="s">
         <v>34</v>
@@ -9723,12 +9712,12 @@
         <v>1.0925</v>
       </c>
     </row>
-    <row r="286" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A286" s="27" t="s">
         <v>3</v>
       </c>
       <c r="B286" s="25" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C286" s="25" t="s">
         <v>34</v>
@@ -9752,12 +9741,12 @@
         <v>1.1006</v>
       </c>
     </row>
-    <row r="287" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A287" s="27" t="s">
         <v>3</v>
       </c>
       <c r="B287" s="27" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C287" s="25" t="s">
         <v>34</v>
@@ -9781,12 +9770,12 @@
         <v>1.1017999999999999</v>
       </c>
     </row>
-    <row r="288" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A288" s="25" t="s">
         <v>3</v>
       </c>
       <c r="B288" s="25" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C288" s="25" t="s">
         <v>33</v>
@@ -9810,12 +9799,12 @@
         <v>0.90359999999999996</v>
       </c>
     </row>
-    <row r="289" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A289" s="25" t="s">
         <v>3</v>
       </c>
       <c r="B289" s="25" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C289" s="25" t="s">
         <v>33</v>
@@ -9839,12 +9828,12 @@
         <v>0.90500000000000003</v>
       </c>
     </row>
-    <row r="290" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A290" s="25" t="s">
         <v>3</v>
       </c>
       <c r="B290" s="25" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C290" s="25" t="s">
         <v>34</v>
@@ -9868,12 +9857,12 @@
         <v>0.91310000000000002</v>
       </c>
     </row>
-    <row r="291" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A291" s="25" t="s">
         <v>3</v>
       </c>
       <c r="B291" s="25" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C291" s="25" t="s">
         <v>34</v>
@@ -9897,12 +9886,12 @@
         <v>0.9143</v>
       </c>
     </row>
-    <row r="292" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A292" s="25" t="s">
         <v>3</v>
       </c>
       <c r="B292" s="25" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C292" s="25" t="s">
         <v>34</v>
@@ -9926,12 +9915,12 @@
         <v>0.91610000000000003</v>
       </c>
     </row>
-    <row r="293" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A293" s="25" t="s">
         <v>3</v>
       </c>
       <c r="B293" s="25" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C293" s="25" t="s">
         <v>34</v>
@@ -10481,7 +10470,13 @@
       <c r="I368" s="6"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I293"/>
+  <autoFilter ref="A1:I293">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="5/8-11"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="1">
     <mergeCell ref="N33:N35"/>
   </mergeCells>
